--- a/Tests/files/StochasticOscillator.xlsx
+++ b/Tests/files/StochasticOscillator.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/esraovali/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/esraovali/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B812AA-3A6D-BD41-852E-3D4163A6AF8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F81457-41E7-204A-80F6-F76843FC7974}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -613,8 +613,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I1189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -859,8 +859,8 @@
         <v>87.142445766942203</v>
       </c>
       <c r="I9" s="8">
-        <f t="shared" ref="I9:I40" si="3">AVERAGE(H6:H8)</f>
-        <v>51.547176258336584</v>
+        <f>AVERAGE(H7:H9)</f>
+        <v>60.955149319584926</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -892,8 +892,8 @@
         <v>75.844691879439324</v>
       </c>
       <c r="I10" s="8">
-        <f t="shared" si="3"/>
-        <v>60.955149319584926</v>
+        <f>AVERAGE(H8:H10)</f>
+        <v>73.682164773187878</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -925,8 +925,8 @@
         <v>96.926638823315571</v>
       </c>
       <c r="I11" s="8">
-        <f t="shared" si="3"/>
-        <v>73.682164773187878</v>
+        <f>AVERAGE(H9:H11)</f>
+        <v>86.637925489899033</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -958,8 +958,8 @@
         <v>90.66278549037159</v>
       </c>
       <c r="I12" s="8">
-        <f t="shared" si="3"/>
-        <v>86.637925489899033</v>
+        <f>AVERAGE(H10:H12)</f>
+        <v>87.811372064375476</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -991,8 +991,8 @@
         <v>80.838929751626097</v>
       </c>
       <c r="I13" s="8">
-        <f t="shared" si="3"/>
-        <v>87.811372064375476</v>
+        <f>AVERAGE(H11:H13)</f>
+        <v>89.476118021771086</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1024,8 +1024,8 @@
         <v>76.33150668062278</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" si="3"/>
-        <v>89.476118021771086</v>
+        <f>AVERAGE(H12:H14)</f>
+        <v>82.611073974206818</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1057,8 +1057,8 @@
         <v>83.721267844181227</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="3"/>
-        <v>82.611073974206818</v>
+        <f>AVERAGE(H13:H15)</f>
+        <v>80.297234758810035</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1090,8 +1090,8 @@
         <v>98.983919049418446</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="3"/>
-        <v>80.297234758810035</v>
+        <f>AVERAGE(H14:H16)</f>
+        <v>86.345564524740823</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1123,8 +1123,8 @@
         <v>96.359867330017039</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="3"/>
-        <v>86.345564524740823</v>
+        <f>AVERAGE(H15:H17)</f>
+        <v>93.021684741205561</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1156,8 +1156,8 @@
         <v>87.278331822302846</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" si="3"/>
-        <v>93.021684741205561</v>
+        <f>AVERAGE(H16:H18)</f>
+        <v>94.207372733912777</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1189,8 +1189,8 @@
         <v>84.478049767347599</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="3"/>
-        <v>94.207372733912777</v>
+        <f>AVERAGE(H17:H19)</f>
+        <v>89.372082973222504</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1222,8 +1222,8 @@
         <v>36.542637189104148</v>
       </c>
       <c r="I20" s="8">
-        <f t="shared" si="3"/>
-        <v>89.372082973222504</v>
+        <f>AVERAGE(H19:H21)</f>
+        <v>72.157695096762012</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1255,8 +1255,8 @@
         <v>95.452398333834282</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="3"/>
-        <v>69.433006259584872</v>
+        <f>AVERAGE(H20:H22)</f>
+        <v>75.118066320280604</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1288,8 +1288,8 @@
         <v>93.359163437903391</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="3"/>
-        <v>72.157695096762012</v>
+        <f>AVERAGE(H21:H23)</f>
+        <v>93.950664756674726</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1321,8 +1321,8 @@
         <v>93.040432498286549</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="3"/>
-        <v>75.118066320280604</v>
+        <f>AVERAGE(H22:H24)</f>
+        <v>95.43374987047612</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1354,8 +1354,8 @@
         <v>99.901653675238421</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="3"/>
-        <v>93.950664756674726</v>
+        <f>AVERAGE(H23:H25)</f>
+        <v>94.594863126722473</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1387,8 +1387,8 @@
         <v>90.842503206642476</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="3"/>
-        <v>95.43374987047612</v>
+        <f>AVERAGE(H24:H26)</f>
+        <v>96.185301718444762</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1420,8 +1420,8 @@
         <v>97.811748273453404</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="3"/>
-        <v>94.594863126722473</v>
+        <f>AVERAGE(H25:H27)</f>
+        <v>94.46832176505427</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1453,8 +1453,8 @@
         <v>94.750713815066945</v>
       </c>
       <c r="I27" s="8">
-        <f t="shared" si="3"/>
-        <v>96.185301718444762</v>
+        <f>AVERAGE(H26:H28)</f>
+        <v>93.881804135292327</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1486,8 +1486,8 @@
         <v>89.08295031735662</v>
       </c>
       <c r="I28" s="8">
-        <f t="shared" si="3"/>
-        <v>94.46832176505427</v>
+        <f>AVERAGE(H26:H28)</f>
+        <v>93.881804135292327</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1519,8 +1519,8 @@
         <v>93.451766164015595</v>
       </c>
       <c r="I29" s="8">
-        <f t="shared" si="3"/>
-        <v>93.881804135292327</v>
+        <f>AVERAGE(H27:H29)</f>
+        <v>92.428476765479715</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1552,8 +1552,8 @@
         <v>86.937964530134778</v>
       </c>
       <c r="I30" s="8">
-        <f t="shared" si="3"/>
-        <v>92.428476765479715</v>
+        <f>AVERAGE(H28:H30)</f>
+        <v>89.824227003835674</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1585,8 +1585,8 @@
         <v>54.031007751937139</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" si="3"/>
-        <v>89.824227003835674</v>
+        <f>AVERAGE(H29:H31)</f>
+        <v>78.140246148695837</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1618,8 +1618,8 @@
         <v>89.748324442620813</v>
       </c>
       <c r="I32" s="8">
-        <f t="shared" si="3"/>
-        <v>78.140246148695837</v>
+        <f>AVERAGE(H30:H32)</f>
+        <v>76.905765574897586</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1651,8 +1651,8 @@
         <v>91.26831532188551</v>
       </c>
       <c r="I33" s="8">
-        <f t="shared" si="3"/>
-        <v>76.905765574897586</v>
+        <f>AVERAGE(H31:H33)</f>
+        <v>78.349215838814487</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1684,8 +1684,8 @@
         <v>17.085850779823588</v>
       </c>
       <c r="I34" s="8">
-        <f t="shared" si="3"/>
-        <v>78.349215838814487</v>
+        <f>AVERAGE(H32:H34)</f>
+        <v>66.034163514776637</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1717,8 +1717,8 @@
         <v>12.975274977787445</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" si="3"/>
-        <v>66.034163514776637</v>
+        <f>AVERAGE(H33:H35)</f>
+        <v>40.443147026498849</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1750,8 +1750,8 @@
         <v>20.983646870773395</v>
       </c>
       <c r="I36" s="8">
-        <f t="shared" si="3"/>
-        <v>40.443147026498849</v>
+        <f>AVERAGE(H34:H36)</f>
+        <v>17.014924209461473</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1783,8 +1783,8 @@
         <v>36.217877781876503</v>
       </c>
       <c r="I37" s="8">
-        <f t="shared" si="3"/>
-        <v>17.014924209461473</v>
+        <f>AVERAGE(H35:H37)</f>
+        <v>23.392266543479113</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -1804,20 +1804,20 @@
         <v>12226.34</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" ref="F38:F69" si="4">MAX(C34:C38)</f>
+        <f t="shared" ref="F38:F69" si="3">MAX(C34:C38)</f>
         <v>12389.82</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" ref="G38:G69" si="5">MIN(D34:D38)</f>
+        <f t="shared" ref="G38:G69" si="4">MIN(D34:D38)</f>
         <v>11983.17</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" ref="H38:H69" si="6">(E38-G38)/(F38-G38)%</f>
+        <f t="shared" ref="H38:H69" si="5">(E38-G38)/(F38-G38)%</f>
         <v>59.798352391491534</v>
       </c>
       <c r="I38" s="8">
-        <f t="shared" si="3"/>
-        <v>23.392266543479113</v>
+        <f>AVERAGE(H36:H38)</f>
+        <v>38.999959014713809</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -1837,20 +1837,20 @@
         <v>12058.02</v>
       </c>
       <c r="F39" s="7">
+        <f t="shared" si="3"/>
+        <v>12261.38</v>
+      </c>
+      <c r="G39" s="7">
         <f t="shared" si="4"/>
-        <v>12261.38</v>
-      </c>
-      <c r="G39" s="7">
+        <v>11983.17</v>
+      </c>
+      <c r="H39" s="8">
         <f t="shared" si="5"/>
-        <v>11983.17</v>
-      </c>
-      <c r="H39" s="8">
-        <f t="shared" si="6"/>
         <v>26.904137162575246</v>
       </c>
       <c r="I39" s="8">
-        <f t="shared" si="3"/>
-        <v>38.999959014713809</v>
+        <f>AVERAGE(H37:H39)</f>
+        <v>40.973455778647754</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -1870,20 +1870,20 @@
         <v>12066.8</v>
       </c>
       <c r="F40" s="7">
+        <f t="shared" si="3"/>
+        <v>12261.38</v>
+      </c>
+      <c r="G40" s="7">
         <f t="shared" si="4"/>
-        <v>12261.38</v>
-      </c>
-      <c r="G40" s="7">
+        <v>11983.17</v>
+      </c>
+      <c r="H40" s="8">
         <f t="shared" si="5"/>
-        <v>11983.17</v>
-      </c>
-      <c r="H40" s="8">
-        <f t="shared" si="6"/>
         <v>30.060026598612364</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" si="3"/>
-        <v>40.973455778647754</v>
+        <f>AVERAGE(H38:H40)</f>
+        <v>38.920838717559711</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -1903,20 +1903,20 @@
         <v>12258.2</v>
       </c>
       <c r="F41" s="7">
+        <f t="shared" si="3"/>
+        <v>12283.1</v>
+      </c>
+      <c r="G41" s="7">
         <f t="shared" si="4"/>
-        <v>12283.1</v>
-      </c>
-      <c r="G41" s="7">
+        <v>12018.63</v>
+      </c>
+      <c r="H41" s="8">
         <f t="shared" si="5"/>
-        <v>12018.63</v>
-      </c>
-      <c r="H41" s="8">
-        <f t="shared" si="6"/>
         <v>90.584943471849527</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" ref="I41:I72" si="7">AVERAGE(H38:H40)</f>
-        <v>38.920838717559711</v>
+        <f>AVERAGE(H39:H41)</f>
+        <v>49.183035744345716</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -1936,20 +1936,20 @@
         <v>12090.03</v>
       </c>
       <c r="F42" s="7">
+        <f t="shared" si="3"/>
+        <v>12283.1</v>
+      </c>
+      <c r="G42" s="7">
         <f t="shared" si="4"/>
-        <v>12283.1</v>
-      </c>
-      <c r="G42" s="7">
+        <v>12018.63</v>
+      </c>
+      <c r="H42" s="8">
         <f t="shared" si="5"/>
-        <v>12018.63</v>
-      </c>
-      <c r="H42" s="8">
-        <f t="shared" si="6"/>
         <v>26.997391008432388</v>
       </c>
       <c r="I42" s="8">
-        <f t="shared" si="7"/>
-        <v>49.183035744345716</v>
+        <f>AVERAGE(H40:H42)</f>
+        <v>49.21412035963143</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -1969,20 +1969,20 @@
         <v>12214.38</v>
       </c>
       <c r="F43" s="7">
+        <f t="shared" si="3"/>
+        <v>12283.1</v>
+      </c>
+      <c r="G43" s="7">
         <f t="shared" si="4"/>
-        <v>12283.1</v>
-      </c>
-      <c r="G43" s="7">
+        <v>12018.63</v>
+      </c>
+      <c r="H43" s="8">
         <f t="shared" si="5"/>
-        <v>12018.63</v>
-      </c>
-      <c r="H43" s="8">
-        <f t="shared" si="6"/>
         <v>74.015956441183931</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" si="7"/>
-        <v>49.21412035963143</v>
+        <f>AVERAGE(H41:H43)</f>
+        <v>63.866096973821946</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -2002,20 +2002,20 @@
         <v>12213.09</v>
       </c>
       <c r="F44" s="7">
+        <f t="shared" si="3"/>
+        <v>12283.1</v>
+      </c>
+      <c r="G44" s="7">
         <f t="shared" si="4"/>
-        <v>12283.1</v>
-      </c>
-      <c r="G44" s="7">
+        <v>12018.63</v>
+      </c>
+      <c r="H44" s="8">
         <f t="shared" si="5"/>
-        <v>12018.63</v>
-      </c>
-      <c r="H44" s="8">
-        <f t="shared" si="6"/>
         <v>73.528188452376483</v>
       </c>
       <c r="I44" s="8">
-        <f t="shared" si="7"/>
-        <v>63.866096973821946</v>
+        <f>AVERAGE(H42:H44)</f>
+        <v>58.180511967330936</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -2035,20 +2035,20 @@
         <v>12023.89</v>
       </c>
       <c r="F45" s="7">
+        <f t="shared" si="3"/>
+        <v>12283.1</v>
+      </c>
+      <c r="G45" s="7">
         <f t="shared" si="4"/>
-        <v>12283.1</v>
-      </c>
-      <c r="G45" s="7">
+        <v>11974.39</v>
+      </c>
+      <c r="H45" s="8">
         <f t="shared" si="5"/>
-        <v>11974.39</v>
-      </c>
-      <c r="H45" s="8">
-        <f t="shared" si="6"/>
         <v>16.034466003692739</v>
       </c>
       <c r="I45" s="8">
-        <f t="shared" si="7"/>
-        <v>58.180511967330936</v>
+        <f>AVERAGE(H43:H45)</f>
+        <v>54.526203632417719</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -2068,20 +2068,20 @@
         <v>12044.4</v>
       </c>
       <c r="F46" s="7">
+        <f t="shared" si="3"/>
+        <v>12257.82</v>
+      </c>
+      <c r="G46" s="7">
         <f t="shared" si="4"/>
-        <v>12257.82</v>
-      </c>
-      <c r="G46" s="7">
+        <v>11936.32</v>
+      </c>
+      <c r="H46" s="8">
         <f t="shared" si="5"/>
-        <v>11936.32</v>
-      </c>
-      <c r="H46" s="8">
-        <f t="shared" si="6"/>
         <v>33.617418351477426</v>
       </c>
       <c r="I46" s="8">
-        <f t="shared" si="7"/>
-        <v>54.526203632417719</v>
+        <f>AVERAGE(H44:H46)</f>
+        <v>41.060024269182215</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -2101,20 +2101,20 @@
         <v>11993.16</v>
       </c>
       <c r="F47" s="7">
+        <f t="shared" si="3"/>
+        <v>12257.82</v>
+      </c>
+      <c r="G47" s="7">
         <f t="shared" si="4"/>
-        <v>12257.82</v>
-      </c>
-      <c r="G47" s="7">
+        <v>11897.31</v>
+      </c>
+      <c r="H47" s="8">
         <f t="shared" si="5"/>
-        <v>11897.31</v>
-      </c>
-      <c r="H47" s="8">
-        <f t="shared" si="6"/>
         <v>26.587334609303571</v>
       </c>
       <c r="I47" s="8">
-        <f t="shared" si="7"/>
-        <v>41.060024269182215</v>
+        <f>AVERAGE(H45:H47)</f>
+        <v>25.413072988157911</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -2134,20 +2134,20 @@
         <v>11891.21</v>
       </c>
       <c r="F48" s="7">
+        <f t="shared" si="3"/>
+        <v>12257.82</v>
+      </c>
+      <c r="G48" s="7">
         <f t="shared" si="4"/>
-        <v>12257.82</v>
-      </c>
-      <c r="G48" s="7">
+        <v>11696.25</v>
+      </c>
+      <c r="H48" s="8">
         <f t="shared" si="5"/>
-        <v>11696.25</v>
-      </c>
-      <c r="H48" s="8">
-        <f t="shared" si="6"/>
         <v>34.716954253254137</v>
       </c>
       <c r="I48" s="8">
-        <f t="shared" si="7"/>
-        <v>25.413072988157911</v>
+        <f>AVERAGE(H46:H48)</f>
+        <v>31.640569071345045</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -2167,20 +2167,20 @@
         <v>11613.3</v>
       </c>
       <c r="F49" s="7">
+        <f t="shared" si="3"/>
+        <v>12211.43</v>
+      </c>
+      <c r="G49" s="7">
         <f t="shared" si="4"/>
-        <v>12211.43</v>
-      </c>
-      <c r="G49" s="7">
+        <v>11555.48</v>
+      </c>
+      <c r="H49" s="8">
         <f t="shared" si="5"/>
-        <v>11555.48</v>
-      </c>
-      <c r="H49" s="8">
-        <f t="shared" si="6"/>
         <v>8.8146962420915695</v>
       </c>
       <c r="I49" s="8">
-        <f t="shared" si="7"/>
-        <v>31.640569071345045</v>
+        <f>AVERAGE(H47:H49)</f>
+        <v>23.372995034883093</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -2200,20 +2200,20 @@
         <v>11774.59</v>
       </c>
       <c r="F50" s="7">
+        <f t="shared" si="3"/>
+        <v>12087.01</v>
+      </c>
+      <c r="G50" s="7">
         <f t="shared" si="4"/>
-        <v>12087.01</v>
-      </c>
-      <c r="G50" s="7">
+        <v>11555.48</v>
+      </c>
+      <c r="H50" s="8">
         <f t="shared" si="5"/>
-        <v>11555.48</v>
-      </c>
-      <c r="H50" s="8">
-        <f t="shared" si="6"/>
         <v>41.222508607228249</v>
       </c>
       <c r="I50" s="8">
-        <f t="shared" si="7"/>
-        <v>23.372995034883093</v>
+        <f>AVERAGE(H48:H50)</f>
+        <v>28.251386367524656</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -2233,20 +2233,20 @@
         <v>11858.52</v>
       </c>
       <c r="F51" s="7">
+        <f t="shared" si="3"/>
+        <v>12042.13</v>
+      </c>
+      <c r="G51" s="7">
         <f t="shared" si="4"/>
-        <v>12042.13</v>
-      </c>
-      <c r="G51" s="7">
+        <v>11555.48</v>
+      </c>
+      <c r="H51" s="8">
         <f t="shared" si="5"/>
-        <v>11555.48</v>
-      </c>
-      <c r="H51" s="8">
-        <f t="shared" si="6"/>
         <v>62.270625706360029</v>
       </c>
       <c r="I51" s="8">
-        <f t="shared" si="7"/>
-        <v>28.251386367524656</v>
+        <f>AVERAGE(H49:H51)</f>
+        <v>37.435943518559952</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -2266,20 +2266,20 @@
         <v>12036.53</v>
       </c>
       <c r="F52" s="7">
+        <f t="shared" si="3"/>
+        <v>12078.3</v>
+      </c>
+      <c r="G52" s="7">
         <f t="shared" si="4"/>
-        <v>12078.3</v>
-      </c>
-      <c r="G52" s="7">
+        <v>11555.48</v>
+      </c>
+      <c r="H52" s="8">
         <f t="shared" si="5"/>
-        <v>11555.48</v>
-      </c>
-      <c r="H52" s="8">
-        <f t="shared" si="6"/>
         <v>92.01063463524757</v>
       </c>
       <c r="I52" s="8">
-        <f t="shared" si="7"/>
-        <v>37.435943518559952</v>
+        <f>AVERAGE(H50:H52)</f>
+        <v>65.167922982945285</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -2299,20 +2299,20 @@
         <v>12018.63</v>
       </c>
       <c r="F53" s="7">
+        <f t="shared" si="3"/>
+        <v>12078.3</v>
+      </c>
+      <c r="G53" s="7">
         <f t="shared" si="4"/>
-        <v>12078.3</v>
-      </c>
-      <c r="G53" s="7">
+        <v>11555.48</v>
+      </c>
+      <c r="H53" s="8">
         <f t="shared" si="5"/>
-        <v>11555.48</v>
-      </c>
-      <c r="H53" s="8">
-        <f t="shared" si="6"/>
         <v>88.586894150950585</v>
       </c>
       <c r="I53" s="8">
-        <f t="shared" si="7"/>
-        <v>65.167922982945285</v>
+        <f>AVERAGE(H51:H53)</f>
+        <v>80.956051497519397</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -2332,20 +2332,20 @@
         <v>12086.02</v>
       </c>
       <c r="F54" s="7">
+        <f t="shared" si="3"/>
+        <v>12116.14</v>
+      </c>
+      <c r="G54" s="7">
         <f t="shared" si="4"/>
-        <v>12116.14</v>
-      </c>
-      <c r="G54" s="7">
+        <v>11614.82</v>
+      </c>
+      <c r="H54" s="8">
         <f t="shared" si="5"/>
-        <v>11614.82</v>
-      </c>
-      <c r="H54" s="8">
-        <f t="shared" si="6"/>
         <v>93.991861485678015</v>
       </c>
       <c r="I54" s="8">
-        <f t="shared" si="7"/>
-        <v>80.956051497519397</v>
+        <f>AVERAGE(H52:H54)</f>
+        <v>91.529796757292047</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -2365,20 +2365,20 @@
         <v>12170.56</v>
       </c>
       <c r="F55" s="7">
+        <f t="shared" si="3"/>
+        <v>12191.18</v>
+      </c>
+      <c r="G55" s="7">
         <f t="shared" si="4"/>
-        <v>12191.18</v>
-      </c>
-      <c r="G55" s="7">
+        <v>11777.23</v>
+      </c>
+      <c r="H55" s="8">
         <f t="shared" si="5"/>
-        <v>11777.23</v>
-      </c>
-      <c r="H55" s="8">
-        <f t="shared" si="6"/>
         <v>95.018722067882422</v>
       </c>
       <c r="I55" s="8">
-        <f t="shared" si="7"/>
-        <v>91.529796757292047</v>
+        <f>AVERAGE(H53:H55)</f>
+        <v>92.532492568170355</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -2398,20 +2398,20 @@
         <v>12220.59</v>
       </c>
       <c r="F56" s="7">
+        <f t="shared" si="3"/>
+        <v>12259.79</v>
+      </c>
+      <c r="G56" s="7">
         <f t="shared" si="4"/>
-        <v>12259.79</v>
-      </c>
-      <c r="G56" s="7">
+        <v>11860.11</v>
+      </c>
+      <c r="H56" s="8">
         <f t="shared" si="5"/>
-        <v>11860.11</v>
-      </c>
-      <c r="H56" s="8">
-        <f t="shared" si="6"/>
         <v>90.192153722978205</v>
       </c>
       <c r="I56" s="8">
-        <f t="shared" si="7"/>
-        <v>92.532492568170355</v>
+        <f>AVERAGE(H54:H56)</f>
+        <v>93.067579092179542</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2431,20 +2431,20 @@
         <v>12197.88</v>
       </c>
       <c r="F57" s="7">
+        <f t="shared" si="3"/>
+        <v>12272.92</v>
+      </c>
+      <c r="G57" s="7">
         <f t="shared" si="4"/>
-        <v>12272.92</v>
-      </c>
-      <c r="G57" s="7">
+        <v>11972.61</v>
+      </c>
+      <c r="H57" s="8">
         <f t="shared" si="5"/>
-        <v>11972.61</v>
-      </c>
-      <c r="H57" s="8">
-        <f t="shared" si="6"/>
         <v>75.012487096666447</v>
       </c>
       <c r="I57" s="8">
-        <f t="shared" si="7"/>
-        <v>93.067579092179542</v>
+        <f>AVERAGE(H55:H57)</f>
+        <v>86.741120962509015</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2464,20 +2464,20 @@
         <v>12279.01</v>
       </c>
       <c r="F58" s="7">
+        <f t="shared" si="3"/>
+        <v>12285.41</v>
+      </c>
+      <c r="G58" s="7">
         <f t="shared" si="4"/>
-        <v>12285.41</v>
-      </c>
-      <c r="G58" s="7">
+        <v>11972.61</v>
+      </c>
+      <c r="H58" s="8">
         <f t="shared" si="5"/>
-        <v>11972.61</v>
-      </c>
-      <c r="H58" s="8">
-        <f t="shared" si="6"/>
         <v>97.953964194373512</v>
       </c>
       <c r="I58" s="8">
-        <f t="shared" si="7"/>
-        <v>86.741120962509015</v>
+        <f>AVERAGE(H56:H58)</f>
+        <v>87.719535004672721</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -2497,20 +2497,20 @@
         <v>12350.61</v>
       </c>
       <c r="F59" s="7">
+        <f t="shared" si="3"/>
+        <v>12383.46</v>
+      </c>
+      <c r="G59" s="7">
         <f t="shared" si="4"/>
-        <v>12383.46</v>
-      </c>
-      <c r="G59" s="7">
+        <v>12087.54</v>
+      </c>
+      <c r="H59" s="8">
         <f t="shared" si="5"/>
-        <v>12087.54</v>
-      </c>
-      <c r="H59" s="8">
-        <f t="shared" si="6"/>
         <v>88.89902676399069</v>
       </c>
       <c r="I59" s="8">
-        <f t="shared" si="7"/>
-        <v>87.719535004672721</v>
+        <f>AVERAGE(H57:H59)</f>
+        <v>87.288492685010212</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -2530,20 +2530,20 @@
         <v>12319.73</v>
       </c>
       <c r="F60" s="7">
+        <f t="shared" si="3"/>
+        <v>12383.46</v>
+      </c>
+      <c r="G60" s="7">
         <f t="shared" si="4"/>
-        <v>12383.46</v>
-      </c>
-      <c r="G60" s="7">
+        <v>12170.71</v>
+      </c>
+      <c r="H60" s="8">
         <f t="shared" si="5"/>
-        <v>12170.71</v>
-      </c>
-      <c r="H60" s="8">
-        <f t="shared" si="6"/>
         <v>70.044653349001379</v>
       </c>
       <c r="I60" s="8">
-        <f t="shared" si="7"/>
-        <v>87.288492685010212</v>
+        <f>AVERAGE(H58:H60)</f>
+        <v>85.632548102455189</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -2563,20 +2563,20 @@
         <v>12376.72</v>
       </c>
       <c r="F61" s="7">
+        <f t="shared" si="3"/>
+        <v>12419.71</v>
+      </c>
+      <c r="G61" s="7">
         <f t="shared" si="4"/>
-        <v>12419.71</v>
-      </c>
-      <c r="G61" s="7">
+        <v>12173.51</v>
+      </c>
+      <c r="H61" s="8">
         <f t="shared" si="5"/>
-        <v>12173.51</v>
-      </c>
-      <c r="H61" s="8">
-        <f t="shared" si="6"/>
         <v>82.538586515028442</v>
       </c>
       <c r="I61" s="8">
-        <f t="shared" si="7"/>
-        <v>85.632548102455189</v>
+        <f>AVERAGE(H59:H61)</f>
+        <v>80.494088876006842</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -2596,20 +2596,20 @@
         <v>12400.03</v>
       </c>
       <c r="F62" s="7">
+        <f t="shared" si="3"/>
+        <v>12419.71</v>
+      </c>
+      <c r="G62" s="7">
         <f t="shared" si="4"/>
-        <v>12419.71</v>
-      </c>
-      <c r="G62" s="7">
+        <v>12173.51</v>
+      </c>
+      <c r="H62" s="8">
         <f t="shared" si="5"/>
-        <v>12173.51</v>
-      </c>
-      <c r="H62" s="8">
-        <f t="shared" si="6"/>
         <v>92.006498781479053</v>
       </c>
       <c r="I62" s="8">
-        <f t="shared" si="7"/>
-        <v>80.494088876006842</v>
+        <f>AVERAGE(H60:H62)</f>
+        <v>81.529912881836296</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -2629,20 +2629,20 @@
         <v>12393.9</v>
       </c>
       <c r="F63" s="7">
+        <f t="shared" si="3"/>
+        <v>12438.14</v>
+      </c>
+      <c r="G63" s="7">
         <f t="shared" si="4"/>
-        <v>12438.14</v>
-      </c>
-      <c r="G63" s="7">
+        <v>12280.07</v>
+      </c>
+      <c r="H63" s="8">
         <f t="shared" si="5"/>
-        <v>12280.07</v>
-      </c>
-      <c r="H63" s="8">
-        <f t="shared" si="6"/>
         <v>72.012399569810924</v>
       </c>
       <c r="I63" s="8">
-        <f t="shared" si="7"/>
-        <v>81.529912881836296</v>
+        <f>AVERAGE(H61:H63)</f>
+        <v>82.185828288772811</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -2662,20 +2662,20 @@
         <v>12426.75</v>
       </c>
       <c r="F64" s="7">
+        <f t="shared" si="3"/>
+        <v>12450.93</v>
+      </c>
+      <c r="G64" s="7">
         <f t="shared" si="4"/>
-        <v>12450.93</v>
-      </c>
-      <c r="G64" s="7">
+        <v>12319.01</v>
+      </c>
+      <c r="H64" s="8">
         <f t="shared" si="5"/>
-        <v>12319.01</v>
-      </c>
-      <c r="H64" s="8">
-        <f t="shared" si="6"/>
         <v>81.670709520921548</v>
       </c>
       <c r="I64" s="8">
-        <f t="shared" si="7"/>
-        <v>82.185828288772811</v>
+        <f>AVERAGE(H62:H64)</f>
+        <v>81.896535957403842</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -2695,20 +2695,20 @@
         <v>12409.49</v>
       </c>
       <c r="F65" s="7">
+        <f t="shared" si="3"/>
+        <v>12450.93</v>
+      </c>
+      <c r="G65" s="7">
         <f t="shared" si="4"/>
-        <v>12450.93</v>
-      </c>
-      <c r="G65" s="7">
+        <v>12321.02</v>
+      </c>
+      <c r="H65" s="8">
         <f t="shared" si="5"/>
-        <v>12321.02</v>
-      </c>
-      <c r="H65" s="8">
-        <f t="shared" si="6"/>
         <v>68.100992995150065</v>
       </c>
       <c r="I65" s="8">
-        <f t="shared" si="7"/>
-        <v>81.896535957403842</v>
+        <f>AVERAGE(H63:H65)</f>
+        <v>73.928034028627508</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -2728,20 +2728,20 @@
         <v>11952.97</v>
       </c>
       <c r="F66" s="7">
+        <f t="shared" si="3"/>
+        <v>12450.93</v>
+      </c>
+      <c r="G66" s="7">
         <f t="shared" si="4"/>
-        <v>12450.93</v>
-      </c>
-      <c r="G66" s="7">
+        <v>11917.78</v>
+      </c>
+      <c r="H66" s="8">
         <f t="shared" si="5"/>
-        <v>11917.78</v>
-      </c>
-      <c r="H66" s="8">
-        <f t="shared" si="6"/>
         <v>6.6003938853978639</v>
       </c>
       <c r="I66" s="8">
-        <f t="shared" si="7"/>
-        <v>73.928034028627508</v>
+        <f>AVERAGE(H64:H66)</f>
+        <v>52.124032133823164</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -2761,20 +2761,20 @@
         <v>12076.11</v>
       </c>
       <c r="F67" s="7">
+        <f t="shared" si="3"/>
+        <v>12450.93</v>
+      </c>
+      <c r="G67" s="7">
         <f t="shared" si="4"/>
-        <v>12450.93</v>
-      </c>
-      <c r="G67" s="7">
+        <v>11917.78</v>
+      </c>
+      <c r="H67" s="8">
         <f t="shared" si="5"/>
-        <v>11917.78</v>
-      </c>
-      <c r="H67" s="8">
-        <f t="shared" si="6"/>
         <v>29.697083372409271</v>
       </c>
       <c r="I67" s="8">
-        <f t="shared" si="7"/>
-        <v>52.124032133823164</v>
+        <f t="shared" ref="I67:I81" si="6">AVERAGE(H65:H67)</f>
+        <v>34.799490084319068</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -2794,20 +2794,20 @@
         <v>11897.27</v>
       </c>
       <c r="F68" s="7">
+        <f t="shared" si="3"/>
+        <v>12450.93</v>
+      </c>
+      <c r="G68" s="7">
         <f t="shared" si="4"/>
-        <v>12450.93</v>
-      </c>
-      <c r="G68" s="7">
+        <v>11862.53</v>
+      </c>
+      <c r="H68" s="8">
         <f t="shared" si="5"/>
-        <v>11862.53</v>
-      </c>
-      <c r="H68" s="8">
+        <v>5.9041468388850786</v>
+      </c>
+      <c r="I68" s="8">
         <f t="shared" si="6"/>
-        <v>5.9041468388850786</v>
-      </c>
-      <c r="I68" s="8">
-        <f t="shared" si="7"/>
-        <v>34.799490084319068</v>
+        <v>14.067208032230736</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -2827,20 +2827,20 @@
         <v>11961.52</v>
       </c>
       <c r="F69" s="7">
+        <f t="shared" si="3"/>
+        <v>12440.56</v>
+      </c>
+      <c r="G69" s="7">
         <f t="shared" si="4"/>
-        <v>12440.56</v>
-      </c>
-      <c r="G69" s="7">
+        <v>11862.53</v>
+      </c>
+      <c r="H69" s="8">
         <f t="shared" si="5"/>
-        <v>11862.53</v>
-      </c>
-      <c r="H69" s="8">
+        <v>17.125408715810597</v>
+      </c>
+      <c r="I69" s="8">
         <f t="shared" si="6"/>
-        <v>17.125408715810597</v>
-      </c>
-      <c r="I69" s="8">
-        <f t="shared" si="7"/>
-        <v>14.067208032230736</v>
+        <v>17.57554630903498</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -2860,20 +2860,20 @@
         <v>12004.36</v>
       </c>
       <c r="F70" s="7">
-        <f t="shared" ref="F70:F101" si="8">MAX(C66:C70)</f>
+        <f t="shared" ref="F70:F101" si="7">MAX(C66:C70)</f>
         <v>12120.8</v>
       </c>
       <c r="G70" s="7">
-        <f t="shared" ref="G70:G101" si="9">MIN(D66:D70)</f>
+        <f t="shared" ref="G70:G101" si="8">MIN(D66:D70)</f>
         <v>11862.53</v>
       </c>
       <c r="H70" s="8">
-        <f t="shared" ref="H70:H101" si="10">(E70-G70)/(F70-G70)%</f>
+        <f t="shared" ref="H70:H101" si="9">(E70-G70)/(F70-G70)%</f>
         <v>54.915398613853981</v>
       </c>
       <c r="I70" s="8">
-        <f t="shared" si="7"/>
-        <v>17.57554630903498</v>
+        <f t="shared" si="6"/>
+        <v>25.981651389516554</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -2893,20 +2893,20 @@
         <v>12190.01</v>
       </c>
       <c r="F71" s="7">
+        <f t="shared" si="7"/>
+        <v>12217.33</v>
+      </c>
+      <c r="G71" s="7">
         <f t="shared" si="8"/>
-        <v>12217.33</v>
-      </c>
-      <c r="G71" s="7">
+        <v>11862.53</v>
+      </c>
+      <c r="H71" s="8">
         <f t="shared" si="9"/>
-        <v>11862.53</v>
-      </c>
-      <c r="H71" s="8">
-        <f t="shared" si="10"/>
         <v>92.299887260428477</v>
       </c>
       <c r="I71" s="8">
-        <f t="shared" si="7"/>
-        <v>25.981651389516554</v>
+        <f t="shared" si="6"/>
+        <v>54.780231530031017</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -2926,20 +2926,20 @@
         <v>12109.67</v>
       </c>
       <c r="F72" s="7">
+        <f t="shared" si="7"/>
+        <v>12217.33</v>
+      </c>
+      <c r="G72" s="7">
         <f t="shared" si="8"/>
-        <v>12217.33</v>
-      </c>
-      <c r="G72" s="7">
+        <v>11862.53</v>
+      </c>
+      <c r="H72" s="8">
         <f t="shared" si="9"/>
-        <v>11862.53</v>
-      </c>
-      <c r="H72" s="8">
-        <f t="shared" si="10"/>
         <v>69.656144306651612</v>
       </c>
       <c r="I72" s="8">
-        <f t="shared" si="7"/>
-        <v>54.780231530031017</v>
+        <f t="shared" si="6"/>
+        <v>72.290476726978028</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -2959,20 +2959,20 @@
         <v>12050</v>
       </c>
       <c r="F73" s="7">
+        <f t="shared" si="7"/>
+        <v>12217.33</v>
+      </c>
+      <c r="G73" s="7">
         <f t="shared" si="8"/>
-        <v>12217.33</v>
-      </c>
-      <c r="G73" s="7">
+        <v>11874.94</v>
+      </c>
+      <c r="H73" s="8">
         <f t="shared" si="9"/>
-        <v>11874.94</v>
-      </c>
-      <c r="H73" s="8">
-        <f t="shared" si="10"/>
         <v>51.128829697128943</v>
       </c>
       <c r="I73" s="8">
-        <f t="shared" ref="I73:I104" si="11">AVERAGE(H70:H72)</f>
-        <v>72.290476726978028</v>
+        <f t="shared" si="6"/>
+        <v>71.028287088069675</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -2992,20 +2992,20 @@
         <v>11934.58</v>
       </c>
       <c r="F74" s="7">
+        <f t="shared" si="7"/>
+        <v>12217.33</v>
+      </c>
+      <c r="G74" s="7">
         <f t="shared" si="8"/>
-        <v>12217.33</v>
-      </c>
-      <c r="G74" s="7">
+        <v>11874.94</v>
+      </c>
+      <c r="H74" s="8">
         <f t="shared" si="9"/>
-        <v>11874.94</v>
-      </c>
-      <c r="H74" s="8">
-        <f t="shared" si="10"/>
         <v>17.418733023744711</v>
       </c>
       <c r="I74" s="8">
-        <f t="shared" si="11"/>
-        <v>71.028287088069675</v>
+        <f t="shared" si="6"/>
+        <v>46.067902342508425</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -3025,20 +3025,20 @@
         <v>12043.56</v>
       </c>
       <c r="F75" s="7">
+        <f t="shared" si="7"/>
+        <v>12217.33</v>
+      </c>
+      <c r="G75" s="7">
         <f t="shared" si="8"/>
-        <v>12217.33</v>
-      </c>
-      <c r="G75" s="7">
+        <v>11874.94</v>
+      </c>
+      <c r="H75" s="8">
         <f t="shared" si="9"/>
-        <v>11874.94</v>
-      </c>
-      <c r="H75" s="8">
-        <f t="shared" si="10"/>
         <v>49.247933642921595</v>
       </c>
       <c r="I75" s="8">
-        <f t="shared" si="11"/>
-        <v>46.067902342508425</v>
+        <f t="shared" si="6"/>
+        <v>39.265165454598417</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -3058,20 +3058,20 @@
         <v>12188.69</v>
       </c>
       <c r="F76" s="7">
+        <f t="shared" si="7"/>
+        <v>12207.99</v>
+      </c>
+      <c r="G76" s="7">
         <f t="shared" si="8"/>
-        <v>12207.99</v>
-      </c>
-      <c r="G76" s="7">
+        <v>11874.94</v>
+      </c>
+      <c r="H76" s="8">
         <f t="shared" si="9"/>
-        <v>11874.94</v>
-      </c>
-      <c r="H76" s="8">
-        <f t="shared" si="10"/>
         <v>94.205074313166392</v>
       </c>
       <c r="I76" s="8">
-        <f t="shared" si="11"/>
-        <v>39.265165454598417</v>
+        <f t="shared" si="6"/>
+        <v>53.623913659944229</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -3091,20 +3091,20 @@
         <v>12261.42</v>
       </c>
       <c r="F77" s="7">
+        <f t="shared" si="7"/>
+        <v>12284.39</v>
+      </c>
+      <c r="G77" s="7">
         <f t="shared" si="8"/>
-        <v>12284.39</v>
-      </c>
-      <c r="G77" s="7">
+        <v>11874.94</v>
+      </c>
+      <c r="H77" s="8">
         <f t="shared" si="9"/>
-        <v>11874.94</v>
-      </c>
-      <c r="H77" s="8">
-        <f t="shared" si="10"/>
         <v>94.390035413359527</v>
       </c>
       <c r="I77" s="8">
-        <f t="shared" si="11"/>
-        <v>53.623913659944229</v>
+        <f t="shared" si="6"/>
+        <v>79.281014456482509</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -3124,20 +3124,20 @@
         <v>12414.34</v>
       </c>
       <c r="F78" s="7">
+        <f t="shared" si="7"/>
+        <v>12427.09</v>
+      </c>
+      <c r="G78" s="7">
         <f t="shared" si="8"/>
-        <v>12427.09</v>
-      </c>
-      <c r="G78" s="7">
+        <v>11925.42</v>
+      </c>
+      <c r="H78" s="8">
         <f t="shared" si="9"/>
-        <v>11925.42</v>
-      </c>
-      <c r="H78" s="8">
-        <f t="shared" si="10"/>
         <v>97.458488647915956</v>
       </c>
       <c r="I78" s="8">
-        <f t="shared" si="11"/>
-        <v>79.281014456482509</v>
+        <f t="shared" si="6"/>
+        <v>95.351199458147292</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -3157,20 +3157,20 @@
         <v>12582.77</v>
       </c>
       <c r="F79" s="7">
+        <f t="shared" si="7"/>
+        <v>12596.13</v>
+      </c>
+      <c r="G79" s="7">
         <f t="shared" si="8"/>
-        <v>12596.13</v>
-      </c>
-      <c r="G79" s="7">
+        <v>11934.05</v>
+      </c>
+      <c r="H79" s="8">
         <f t="shared" si="9"/>
-        <v>11934.05</v>
-      </c>
-      <c r="H79" s="8">
-        <f t="shared" si="10"/>
         <v>97.982116964717449</v>
       </c>
       <c r="I79" s="8">
-        <f t="shared" si="11"/>
-        <v>95.351199458147292</v>
+        <f t="shared" si="6"/>
+        <v>96.610213675330968</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -3190,20 +3190,20 @@
         <v>12569.87</v>
       </c>
       <c r="F80" s="7">
+        <f t="shared" si="7"/>
+        <v>12601.8</v>
+      </c>
+      <c r="G80" s="7">
         <f t="shared" si="8"/>
-        <v>12601.8</v>
-      </c>
-      <c r="G80" s="7">
+        <v>12042.28</v>
+      </c>
+      <c r="H80" s="8">
         <f t="shared" si="9"/>
-        <v>12042.28</v>
-      </c>
-      <c r="H80" s="8">
-        <f t="shared" si="10"/>
         <v>94.293322848155825</v>
       </c>
       <c r="I80" s="8">
-        <f t="shared" si="11"/>
-        <v>96.610213675330968</v>
+        <f t="shared" si="6"/>
+        <v>96.57797615359641</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -3223,20 +3223,20 @@
         <v>12626.02</v>
       </c>
       <c r="F81" s="7">
+        <f t="shared" si="7"/>
+        <v>12643.24</v>
+      </c>
+      <c r="G81" s="7">
         <f t="shared" si="8"/>
-        <v>12643.24</v>
-      </c>
-      <c r="G81" s="7">
+        <v>12175.86</v>
+      </c>
+      <c r="H81" s="8">
         <f t="shared" si="9"/>
-        <v>12175.86</v>
-      </c>
-      <c r="H81" s="8">
-        <f t="shared" si="10"/>
         <v>96.31563181993252</v>
       </c>
       <c r="I81" s="8">
-        <f t="shared" si="11"/>
-        <v>96.57797615359641</v>
+        <f t="shared" si="6"/>
+        <v>96.197023877601922</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -3256,19 +3256,19 @@
         <v>12719.49</v>
       </c>
       <c r="F82" s="7">
+        <f t="shared" si="7"/>
+        <v>12753.89</v>
+      </c>
+      <c r="G82" s="7">
         <f t="shared" si="8"/>
-        <v>12753.89</v>
-      </c>
-      <c r="G82" s="7">
+        <v>12262.1</v>
+      </c>
+      <c r="H82" s="8">
         <f t="shared" si="9"/>
-        <v>12262.1</v>
-      </c>
-      <c r="H82" s="8">
-        <f t="shared" si="10"/>
         <v>93.005144472234136</v>
       </c>
       <c r="I82" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="I73:I104" si="10">AVERAGE(H79:H81)</f>
         <v>96.197023877601922</v>
       </c>
     </row>
@@ -3289,19 +3289,19 @@
         <v>12657.2</v>
       </c>
       <c r="F83" s="7">
+        <f t="shared" si="7"/>
+        <v>12753.89</v>
+      </c>
+      <c r="G83" s="7">
         <f t="shared" si="8"/>
-        <v>12753.89</v>
-      </c>
-      <c r="G83" s="7">
+        <v>12404.08</v>
+      </c>
+      <c r="H83" s="8">
         <f t="shared" si="9"/>
-        <v>12404.08</v>
-      </c>
-      <c r="H83" s="8">
+        <v>72.359280752408779</v>
+      </c>
+      <c r="I83" s="8">
         <f t="shared" si="10"/>
-        <v>72.359280752408779</v>
-      </c>
-      <c r="I83" s="8">
-        <f t="shared" si="11"/>
         <v>94.53803304677416</v>
       </c>
     </row>
@@ -3322,19 +3322,19 @@
         <v>12505.76</v>
       </c>
       <c r="F84" s="7">
+        <f t="shared" si="7"/>
+        <v>12753.89</v>
+      </c>
+      <c r="G84" s="7">
         <f t="shared" si="8"/>
-        <v>12753.89</v>
-      </c>
-      <c r="G84" s="7">
+        <v>12470.3</v>
+      </c>
+      <c r="H84" s="8">
         <f t="shared" si="9"/>
-        <v>12470.3</v>
-      </c>
-      <c r="H84" s="8">
+        <v>12.503966994605214</v>
+      </c>
+      <c r="I84" s="8">
         <f t="shared" si="10"/>
-        <v>12.503966994605214</v>
-      </c>
-      <c r="I84" s="8">
-        <f t="shared" si="11"/>
         <v>87.226685681525154</v>
       </c>
     </row>
@@ -3355,19 +3355,19 @@
         <v>12446.88</v>
       </c>
       <c r="F85" s="7">
+        <f t="shared" si="7"/>
+        <v>12753.89</v>
+      </c>
+      <c r="G85" s="7">
         <f t="shared" si="8"/>
-        <v>12753.89</v>
-      </c>
-      <c r="G85" s="7">
+        <v>12446.88</v>
+      </c>
+      <c r="H85" s="8">
         <f t="shared" si="9"/>
-        <v>12446.88</v>
-      </c>
-      <c r="H85" s="8">
+        <v>0</v>
+      </c>
+      <c r="I85" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I85" s="8">
-        <f t="shared" si="11"/>
         <v>59.289464073082705</v>
       </c>
     </row>
@@ -3388,19 +3388,19 @@
         <v>12491.61</v>
       </c>
       <c r="F86" s="7">
+        <f t="shared" si="7"/>
+        <v>12753.89</v>
+      </c>
+      <c r="G86" s="7">
         <f t="shared" si="8"/>
-        <v>12753.89</v>
-      </c>
-      <c r="G86" s="7">
+        <v>12446.88</v>
+      </c>
+      <c r="H86" s="8">
         <f t="shared" si="9"/>
-        <v>12446.88</v>
-      </c>
-      <c r="H86" s="8">
+        <v>14.569557994854028</v>
+      </c>
+      <c r="I86" s="8">
         <f t="shared" si="10"/>
-        <v>14.569557994854028</v>
-      </c>
-      <c r="I86" s="8">
-        <f t="shared" si="11"/>
         <v>28.287749249004662</v>
       </c>
     </row>
@@ -3421,19 +3421,19 @@
         <v>12437.12</v>
       </c>
       <c r="F87" s="7">
+        <f t="shared" si="7"/>
+        <v>12717.9</v>
+      </c>
+      <c r="G87" s="7">
         <f t="shared" si="8"/>
-        <v>12717.9</v>
-      </c>
-      <c r="G87" s="7">
+        <v>12414.41</v>
+      </c>
+      <c r="H87" s="8">
         <f t="shared" si="9"/>
-        <v>12414.41</v>
-      </c>
-      <c r="H87" s="8">
+        <v>7.4829483673270829</v>
+      </c>
+      <c r="I87" s="8">
         <f t="shared" si="10"/>
-        <v>7.4829483673270829</v>
-      </c>
-      <c r="I87" s="8">
-        <f t="shared" si="11"/>
         <v>9.0245083298197475</v>
       </c>
     </row>
@@ -3454,19 +3454,19 @@
         <v>12479.73</v>
       </c>
       <c r="F88" s="7">
+        <f t="shared" si="7"/>
+        <v>12655.84</v>
+      </c>
+      <c r="G88" s="7">
         <f t="shared" si="8"/>
-        <v>12655.84</v>
-      </c>
-      <c r="G88" s="7">
+        <v>12406.09</v>
+      </c>
+      <c r="H88" s="8">
         <f t="shared" si="9"/>
-        <v>12406.09</v>
-      </c>
-      <c r="H88" s="8">
+        <v>29.485485485485253</v>
+      </c>
+      <c r="I88" s="8">
         <f t="shared" si="10"/>
-        <v>29.485485485485253</v>
-      </c>
-      <c r="I88" s="8">
-        <f t="shared" si="11"/>
         <v>7.3508354540603706</v>
       </c>
     </row>
@@ -3487,19 +3487,19 @@
         <v>12385.16</v>
       </c>
       <c r="F89" s="7">
+        <f t="shared" si="7"/>
+        <v>12611.04</v>
+      </c>
+      <c r="G89" s="7">
         <f t="shared" si="8"/>
-        <v>12611.04</v>
-      </c>
-      <c r="G89" s="7">
+        <v>12296.23</v>
+      </c>
+      <c r="H89" s="8">
         <f t="shared" si="9"/>
-        <v>12296.23</v>
-      </c>
-      <c r="H89" s="8">
+        <v>28.248784981417337</v>
+      </c>
+      <c r="I89" s="8">
         <f t="shared" si="10"/>
-        <v>28.248784981417337</v>
-      </c>
-      <c r="I89" s="8">
-        <f t="shared" si="11"/>
         <v>17.179330615888787</v>
       </c>
     </row>
@@ -3520,19 +3520,19 @@
         <v>12587.42</v>
       </c>
       <c r="F90" s="7">
+        <f t="shared" si="7"/>
+        <v>12611.04</v>
+      </c>
+      <c r="G90" s="7">
         <f t="shared" si="8"/>
-        <v>12611.04</v>
-      </c>
-      <c r="G90" s="7">
+        <v>12296.23</v>
+      </c>
+      <c r="H90" s="8">
         <f t="shared" si="9"/>
-        <v>12296.23</v>
-      </c>
-      <c r="H90" s="8">
+        <v>92.497061719767245</v>
+      </c>
+      <c r="I90" s="8">
         <f t="shared" si="10"/>
-        <v>92.497061719767245</v>
-      </c>
-      <c r="I90" s="8">
-        <f t="shared" si="11"/>
         <v>21.739072944743224</v>
       </c>
     </row>
@@ -3553,19 +3553,19 @@
         <v>12571.91</v>
       </c>
       <c r="F91" s="7">
+        <f t="shared" si="7"/>
+        <v>12607.56</v>
+      </c>
+      <c r="G91" s="7">
         <f t="shared" si="8"/>
-        <v>12607.56</v>
-      </c>
-      <c r="G91" s="7">
+        <v>12296.23</v>
+      </c>
+      <c r="H91" s="8">
         <f t="shared" si="9"/>
-        <v>12296.23</v>
-      </c>
-      <c r="H91" s="8">
+        <v>88.549127934988718</v>
+      </c>
+      <c r="I91" s="8">
         <f t="shared" si="10"/>
-        <v>88.549127934988718</v>
-      </c>
-      <c r="I91" s="8">
-        <f t="shared" si="11"/>
         <v>50.077110728889942</v>
       </c>
     </row>
@@ -3586,19 +3586,19 @@
         <v>12724.41</v>
       </c>
       <c r="F92" s="7">
+        <f t="shared" si="7"/>
+        <v>12751.43</v>
+      </c>
+      <c r="G92" s="7">
         <f t="shared" si="8"/>
-        <v>12751.43</v>
-      </c>
-      <c r="G92" s="7">
+        <v>12296.23</v>
+      </c>
+      <c r="H92" s="8">
         <f t="shared" si="9"/>
-        <v>12296.23</v>
-      </c>
-      <c r="H92" s="8">
+        <v>94.064147627416432</v>
+      </c>
+      <c r="I92" s="8">
         <f t="shared" si="10"/>
-        <v>94.064147627416432</v>
-      </c>
-      <c r="I92" s="8">
-        <f t="shared" si="11"/>
         <v>69.764991545391098</v>
       </c>
     </row>
@@ -3619,19 +3619,19 @@
         <v>12681.16</v>
       </c>
       <c r="F93" s="7">
+        <f t="shared" si="7"/>
+        <v>12751.43</v>
+      </c>
+      <c r="G93" s="7">
         <f t="shared" si="8"/>
-        <v>12751.43</v>
-      </c>
-      <c r="G93" s="7">
+        <v>12296.23</v>
+      </c>
+      <c r="H93" s="8">
         <f t="shared" si="9"/>
-        <v>12296.23</v>
-      </c>
-      <c r="H93" s="8">
+        <v>84.562829525483224</v>
+      </c>
+      <c r="I93" s="8">
         <f t="shared" si="10"/>
-        <v>84.562829525483224</v>
-      </c>
-      <c r="I93" s="8">
-        <f t="shared" si="11"/>
         <v>91.703445760724136</v>
       </c>
     </row>
@@ -3652,19 +3652,19 @@
         <v>12592.8</v>
       </c>
       <c r="F94" s="7">
+        <f t="shared" si="7"/>
+        <v>12751.43</v>
+      </c>
+      <c r="G94" s="7">
         <f t="shared" si="8"/>
-        <v>12751.43</v>
-      </c>
-      <c r="G94" s="7">
+        <v>12385.96</v>
+      </c>
+      <c r="H94" s="8">
         <f t="shared" si="9"/>
-        <v>12385.96</v>
-      </c>
-      <c r="H94" s="8">
+        <v>56.595616603277833</v>
+      </c>
+      <c r="I94" s="8">
         <f t="shared" si="10"/>
-        <v>56.595616603277833</v>
-      </c>
-      <c r="I94" s="8">
-        <f t="shared" si="11"/>
         <v>89.058701695962782</v>
       </c>
     </row>
@@ -3685,19 +3685,19 @@
         <v>12501.3</v>
       </c>
       <c r="F95" s="7">
+        <f t="shared" si="7"/>
+        <v>12751.43</v>
+      </c>
+      <c r="G95" s="7">
         <f t="shared" si="8"/>
-        <v>12751.43</v>
-      </c>
-      <c r="G95" s="7">
+        <v>12489.04</v>
+      </c>
+      <c r="H95" s="8">
         <f t="shared" si="9"/>
-        <v>12489.04</v>
-      </c>
-      <c r="H95" s="8">
+        <v>4.6724341628867059</v>
+      </c>
+      <c r="I95" s="8">
         <f t="shared" si="10"/>
-        <v>4.6724341628867059</v>
-      </c>
-      <c r="I95" s="8">
-        <f t="shared" si="11"/>
         <v>78.407531252059172</v>
       </c>
     </row>
@@ -3718,19 +3718,19 @@
         <v>12302.55</v>
       </c>
       <c r="F96" s="7">
+        <f t="shared" si="7"/>
+        <v>12751.43</v>
+      </c>
+      <c r="G96" s="7">
         <f t="shared" si="8"/>
-        <v>12751.43</v>
-      </c>
-      <c r="G96" s="7">
+        <v>12289.69</v>
+      </c>
+      <c r="H96" s="8">
         <f t="shared" si="9"/>
-        <v>12289.69</v>
-      </c>
-      <c r="H96" s="8">
+        <v>2.7851171655041296</v>
+      </c>
+      <c r="I96" s="8">
         <f t="shared" si="10"/>
-        <v>2.7851171655041296</v>
-      </c>
-      <c r="I96" s="8">
-        <f t="shared" si="11"/>
         <v>48.610293430549255</v>
       </c>
     </row>
@@ -3751,19 +3751,19 @@
         <v>12240.11</v>
       </c>
       <c r="F97" s="7">
+        <f t="shared" si="7"/>
+        <v>12740.87</v>
+      </c>
+      <c r="G97" s="7">
         <f t="shared" si="8"/>
-        <v>12740.87</v>
-      </c>
-      <c r="G97" s="7">
+        <v>12226.83</v>
+      </c>
+      <c r="H97" s="8">
         <f t="shared" si="9"/>
-        <v>12226.83</v>
-      </c>
-      <c r="H97" s="8">
+        <v>2.5834565403471776</v>
+      </c>
+      <c r="I97" s="8">
         <f t="shared" si="10"/>
-        <v>2.5834565403471776</v>
-      </c>
-      <c r="I97" s="8">
-        <f t="shared" si="11"/>
         <v>21.351055977222888</v>
       </c>
     </row>
@@ -3784,19 +3784,19 @@
         <v>12143.24</v>
       </c>
       <c r="F98" s="7">
+        <f t="shared" si="7"/>
+        <v>12679.95</v>
+      </c>
+      <c r="G98" s="7">
         <f t="shared" si="8"/>
-        <v>12679.95</v>
-      </c>
-      <c r="G98" s="7">
+        <v>12083.45</v>
+      </c>
+      <c r="H98" s="8">
         <f t="shared" si="9"/>
-        <v>12083.45</v>
-      </c>
-      <c r="H98" s="8">
+        <v>10.023470243084502</v>
+      </c>
+      <c r="I98" s="8">
         <f t="shared" si="10"/>
-        <v>10.023470243084502</v>
-      </c>
-      <c r="I98" s="8">
-        <f t="shared" si="11"/>
         <v>3.347002622912671</v>
       </c>
     </row>
@@ -3817,19 +3817,19 @@
         <v>12132.49</v>
       </c>
       <c r="F99" s="7">
+        <f t="shared" si="7"/>
+        <v>12593.4</v>
+      </c>
+      <c r="G99" s="7">
         <f t="shared" si="8"/>
-        <v>12593.4</v>
-      </c>
-      <c r="G99" s="7">
+        <v>11998.08</v>
+      </c>
+      <c r="H99" s="8">
         <f t="shared" si="9"/>
-        <v>11998.08</v>
-      </c>
-      <c r="H99" s="8">
+        <v>22.577773298394128</v>
+      </c>
+      <c r="I99" s="8">
         <f t="shared" si="10"/>
-        <v>22.577773298394128</v>
-      </c>
-      <c r="I99" s="8">
-        <f t="shared" si="11"/>
         <v>5.1306813163119367</v>
       </c>
     </row>
@@ -3850,19 +3850,19 @@
         <v>11866.62</v>
       </c>
       <c r="F100" s="7">
+        <f t="shared" si="7"/>
+        <v>12498.65</v>
+      </c>
+      <c r="G100" s="7">
         <f t="shared" si="8"/>
-        <v>12498.65</v>
-      </c>
-      <c r="G100" s="7">
+        <v>11865.56</v>
+      </c>
+      <c r="H100" s="8">
         <f t="shared" si="9"/>
-        <v>11865.56</v>
-      </c>
-      <c r="H100" s="8">
+        <v>0.167432750478022</v>
+      </c>
+      <c r="I100" s="8">
         <f t="shared" si="10"/>
-        <v>0.167432750478022</v>
-      </c>
-      <c r="I100" s="8">
-        <f t="shared" si="11"/>
         <v>11.728233360608604</v>
       </c>
     </row>
@@ -3883,19 +3883,19 @@
         <v>11896.44</v>
       </c>
       <c r="F101" s="7">
+        <f t="shared" si="7"/>
+        <v>12384.9</v>
+      </c>
+      <c r="G101" s="7">
         <f t="shared" si="8"/>
-        <v>12384.9</v>
-      </c>
-      <c r="G101" s="7">
+        <v>11700.34</v>
+      </c>
+      <c r="H101" s="8">
         <f t="shared" si="9"/>
-        <v>11700.34</v>
-      </c>
-      <c r="H101" s="8">
+        <v>28.64613766506961</v>
+      </c>
+      <c r="I101" s="8">
         <f t="shared" si="10"/>
-        <v>28.64613766506961</v>
-      </c>
-      <c r="I101" s="8">
-        <f t="shared" si="11"/>
         <v>10.922892097318885</v>
       </c>
     </row>
@@ -3916,19 +3916,19 @@
         <v>11383.68</v>
       </c>
       <c r="F102" s="7">
-        <f t="shared" ref="F102:F133" si="12">MAX(C98:C102)</f>
+        <f t="shared" ref="F102:F133" si="11">MAX(C98:C102)</f>
         <v>12282.42</v>
       </c>
       <c r="G102" s="7">
-        <f t="shared" ref="G102:G133" si="13">MIN(D98:D102)</f>
+        <f t="shared" ref="G102:G133" si="12">MIN(D98:D102)</f>
         <v>11372.14</v>
       </c>
       <c r="H102" s="8">
-        <f t="shared" ref="H102:H133" si="14">(E102-G102)/(F102-G102)%</f>
+        <f t="shared" ref="H102:H133" si="13">(E102-G102)/(F102-G102)%</f>
         <v>1.2677417937338911</v>
       </c>
       <c r="I102" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>17.130447904647252</v>
       </c>
     </row>
@@ -3949,19 +3949,19 @@
         <v>11444.61</v>
       </c>
       <c r="F103" s="7">
+        <f t="shared" si="11"/>
+        <v>12282.42</v>
+      </c>
+      <c r="G103" s="7">
         <f t="shared" si="12"/>
-        <v>12282.42</v>
-      </c>
-      <c r="G103" s="7">
+        <v>11139</v>
+      </c>
+      <c r="H103" s="8">
         <f t="shared" si="13"/>
-        <v>11139</v>
-      </c>
-      <c r="H103" s="8">
-        <f t="shared" si="14"/>
         <v>26.727711602036045</v>
       </c>
       <c r="I103" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>10.027104069760506</v>
       </c>
     </row>
@@ -3982,19 +3982,19 @@
         <v>10809.85</v>
       </c>
       <c r="F104" s="7">
+        <f t="shared" si="11"/>
+        <v>12130.3</v>
+      </c>
+      <c r="G104" s="7">
         <f t="shared" si="12"/>
-        <v>12130.3</v>
-      </c>
-      <c r="G104" s="7">
+        <v>10809.85</v>
+      </c>
+      <c r="H104" s="8">
         <f t="shared" si="13"/>
-        <v>10809.85</v>
-      </c>
-      <c r="H104" s="8">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I104" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>18.880530353613182</v>
       </c>
     </row>
@@ -4015,19 +4015,19 @@
         <v>11239.77</v>
       </c>
       <c r="F105" s="7">
+        <f t="shared" si="11"/>
+        <v>11904.91</v>
+      </c>
+      <c r="G105" s="7">
         <f t="shared" si="12"/>
-        <v>11904.91</v>
-      </c>
-      <c r="G105" s="7">
+        <v>10604.07</v>
+      </c>
+      <c r="H105" s="8">
         <f t="shared" si="13"/>
-        <v>10604.07</v>
-      </c>
-      <c r="H105" s="8">
-        <f t="shared" si="14"/>
         <v>48.868423480212833</v>
       </c>
       <c r="I105" s="8">
-        <f t="shared" ref="I105:I136" si="15">AVERAGE(H102:H104)</f>
+        <f t="shared" ref="I105:I136" si="14">AVERAGE(H102:H104)</f>
         <v>9.3318177985899791</v>
       </c>
     </row>
@@ -4048,19 +4048,19 @@
         <v>10719.94</v>
       </c>
       <c r="F106" s="7">
+        <f t="shared" si="11"/>
+        <v>11893.94</v>
+      </c>
+      <c r="G106" s="7">
         <f t="shared" si="12"/>
-        <v>11893.94</v>
-      </c>
-      <c r="G106" s="7">
+        <v>10604.07</v>
+      </c>
+      <c r="H106" s="8">
         <f t="shared" si="13"/>
-        <v>10604.07</v>
-      </c>
-      <c r="H106" s="8">
+        <v>8.9830758138417615</v>
+      </c>
+      <c r="I106" s="8">
         <f t="shared" si="14"/>
-        <v>8.9830758138417615</v>
-      </c>
-      <c r="I106" s="8">
-        <f t="shared" si="15"/>
         <v>25.198711694082959</v>
       </c>
     </row>
@@ -4081,19 +4081,19 @@
         <v>11143.31</v>
       </c>
       <c r="F107" s="7">
+        <f t="shared" si="11"/>
+        <v>11555.41</v>
+      </c>
+      <c r="G107" s="7">
         <f t="shared" si="12"/>
-        <v>11555.41</v>
-      </c>
-      <c r="G107" s="7">
+        <v>10604.07</v>
+      </c>
+      <c r="H107" s="8">
         <f t="shared" si="13"/>
-        <v>10604.07</v>
-      </c>
-      <c r="H107" s="8">
+        <v>56.682153593878084</v>
+      </c>
+      <c r="I107" s="8">
         <f t="shared" si="14"/>
-        <v>56.682153593878084</v>
-      </c>
-      <c r="I107" s="8">
-        <f t="shared" si="15"/>
         <v>19.283833098018196</v>
       </c>
     </row>
@@ -4114,19 +4114,19 @@
         <v>11269.02</v>
       </c>
       <c r="F108" s="7">
+        <f t="shared" si="11"/>
+        <v>11434.09</v>
+      </c>
+      <c r="G108" s="7">
         <f t="shared" si="12"/>
-        <v>11434.09</v>
-      </c>
-      <c r="G108" s="7">
+        <v>10604.07</v>
+      </c>
+      <c r="H108" s="8">
         <f t="shared" si="13"/>
-        <v>10604.07</v>
-      </c>
-      <c r="H108" s="8">
+        <v>80.112527408978153</v>
+      </c>
+      <c r="I108" s="8">
         <f t="shared" si="14"/>
-        <v>80.112527408978153</v>
-      </c>
-      <c r="I108" s="8">
-        <f t="shared" si="15"/>
         <v>38.177884295977556</v>
       </c>
     </row>
@@ -4147,19 +4147,19 @@
         <v>11482.9</v>
       </c>
       <c r="F109" s="7">
+        <f t="shared" si="11"/>
+        <v>11484.6</v>
+      </c>
+      <c r="G109" s="7">
         <f t="shared" si="12"/>
-        <v>11484.6</v>
-      </c>
-      <c r="G109" s="7">
+        <v>10604.07</v>
+      </c>
+      <c r="H109" s="8">
         <f t="shared" si="13"/>
-        <v>10604.07</v>
-      </c>
-      <c r="H109" s="8">
+        <v>99.806934459927461</v>
+      </c>
+      <c r="I109" s="8">
         <f t="shared" si="14"/>
-        <v>99.806934459927461</v>
-      </c>
-      <c r="I109" s="8">
-        <f t="shared" si="15"/>
         <v>48.592585605566001</v>
       </c>
     </row>
@@ -4180,19 +4180,19 @@
         <v>11405.93</v>
       </c>
       <c r="F110" s="7">
+        <f t="shared" si="11"/>
+        <v>11488.01</v>
+      </c>
+      <c r="G110" s="7">
         <f t="shared" si="12"/>
-        <v>11488.01</v>
-      </c>
-      <c r="G110" s="7">
+        <v>10686.49</v>
+      </c>
+      <c r="H110" s="8">
         <f t="shared" si="13"/>
-        <v>10686.49</v>
-      </c>
-      <c r="H110" s="8">
+        <v>89.759457031639911</v>
+      </c>
+      <c r="I110" s="8">
         <f t="shared" si="14"/>
-        <v>89.759457031639911</v>
-      </c>
-      <c r="I110" s="8">
-        <f t="shared" si="15"/>
         <v>78.867205154261228</v>
       </c>
     </row>
@@ -4213,19 +4213,19 @@
         <v>11410.21</v>
       </c>
       <c r="F111" s="7">
+        <f t="shared" si="11"/>
+        <v>11529.67</v>
+      </c>
+      <c r="G111" s="7">
         <f t="shared" si="12"/>
-        <v>11529.67</v>
-      </c>
-      <c r="G111" s="7">
+        <v>10729.85</v>
+      </c>
+      <c r="H111" s="8">
         <f t="shared" si="13"/>
-        <v>10729.85</v>
-      </c>
-      <c r="H111" s="8">
+        <v>85.064139431371942</v>
+      </c>
+      <c r="I111" s="8">
         <f t="shared" si="14"/>
-        <v>85.064139431371942</v>
-      </c>
-      <c r="I111" s="8">
-        <f t="shared" si="15"/>
         <v>89.892972966848504</v>
       </c>
     </row>
@@ -4246,19 +4246,19 @@
         <v>10990.58</v>
       </c>
       <c r="F112" s="7">
+        <f t="shared" si="11"/>
+        <v>11529.67</v>
+      </c>
+      <c r="G112" s="7">
         <f t="shared" si="12"/>
-        <v>11529.67</v>
-      </c>
-      <c r="G112" s="7">
+        <v>10881.6</v>
+      </c>
+      <c r="H112" s="8">
         <f t="shared" si="13"/>
-        <v>10881.6</v>
-      </c>
-      <c r="H112" s="8">
+        <v>16.816084682210196</v>
+      </c>
+      <c r="I112" s="8">
         <f t="shared" si="14"/>
-        <v>16.816084682210196</v>
-      </c>
-      <c r="I112" s="8">
-        <f t="shared" si="15"/>
         <v>91.543510307646443</v>
       </c>
     </row>
@@ -4279,19 +4279,19 @@
         <v>10817.65</v>
       </c>
       <c r="F113" s="7">
+        <f t="shared" si="11"/>
+        <v>11529.67</v>
+      </c>
+      <c r="G113" s="7">
         <f t="shared" si="12"/>
-        <v>11529.67</v>
-      </c>
-      <c r="G113" s="7">
+        <v>10801.41</v>
+      </c>
+      <c r="H113" s="8">
         <f t="shared" si="13"/>
-        <v>10801.41</v>
-      </c>
-      <c r="H113" s="8">
+        <v>2.2299728119078046</v>
+      </c>
+      <c r="I113" s="8">
         <f t="shared" si="14"/>
-        <v>2.2299728119078046</v>
-      </c>
-      <c r="I113" s="8">
-        <f t="shared" si="15"/>
         <v>63.879893715074019</v>
       </c>
     </row>
@@ -4312,19 +4312,19 @@
         <v>10854.65</v>
       </c>
       <c r="F114" s="7">
+        <f t="shared" si="11"/>
+        <v>11529.67</v>
+      </c>
+      <c r="G114" s="7">
         <f t="shared" si="12"/>
-        <v>11529.67</v>
-      </c>
-      <c r="G114" s="7">
+        <v>10801.41</v>
+      </c>
+      <c r="H114" s="8">
         <f t="shared" si="13"/>
-        <v>10801.41</v>
-      </c>
-      <c r="H114" s="8">
+        <v>7.3105758932249154</v>
+      </c>
+      <c r="I114" s="8">
         <f t="shared" si="14"/>
-        <v>7.3105758932249154</v>
-      </c>
-      <c r="I114" s="8">
-        <f t="shared" si="15"/>
         <v>34.70339897516331</v>
       </c>
     </row>
@@ -4345,19 +4345,19 @@
         <v>11176.76</v>
       </c>
       <c r="F115" s="7">
+        <f t="shared" si="11"/>
+        <v>11529.67</v>
+      </c>
+      <c r="G115" s="7">
         <f t="shared" si="12"/>
-        <v>11529.67</v>
-      </c>
-      <c r="G115" s="7">
+        <v>10801.41</v>
+      </c>
+      <c r="H115" s="8">
         <f t="shared" si="13"/>
-        <v>10801.41</v>
-      </c>
-      <c r="H115" s="8">
+        <v>51.54065855601025</v>
+      </c>
+      <c r="I115" s="8">
         <f t="shared" si="14"/>
-        <v>51.54065855601025</v>
-      </c>
-      <c r="I115" s="8">
-        <f t="shared" si="15"/>
         <v>8.7855444624476373</v>
       </c>
     </row>
@@ -4378,19 +4378,19 @@
         <v>11320.71</v>
       </c>
       <c r="F116" s="7">
+        <f t="shared" si="11"/>
+        <v>11406.5</v>
+      </c>
+      <c r="G116" s="7">
         <f t="shared" si="12"/>
-        <v>11406.5</v>
-      </c>
-      <c r="G116" s="7">
+        <v>10801.41</v>
+      </c>
+      <c r="H116" s="8">
         <f t="shared" si="13"/>
-        <v>10801.41</v>
-      </c>
-      <c r="H116" s="8">
+        <v>85.821943843064531</v>
+      </c>
+      <c r="I116" s="8">
         <f t="shared" si="14"/>
-        <v>85.821943843064531</v>
-      </c>
-      <c r="I116" s="8">
-        <f t="shared" si="15"/>
         <v>20.360402420380989</v>
       </c>
     </row>
@@ -4411,19 +4411,19 @@
         <v>11149.82</v>
       </c>
       <c r="F117" s="7">
+        <f t="shared" si="11"/>
+        <v>11406.39</v>
+      </c>
+      <c r="G117" s="7">
         <f t="shared" si="12"/>
-        <v>11406.39</v>
-      </c>
-      <c r="G117" s="7">
+        <v>10801.41</v>
+      </c>
+      <c r="H117" s="8">
         <f t="shared" si="13"/>
-        <v>10801.41</v>
-      </c>
-      <c r="H117" s="8">
+        <v>57.590333564745954</v>
+      </c>
+      <c r="I117" s="8">
         <f t="shared" si="14"/>
-        <v>57.590333564745954</v>
-      </c>
-      <c r="I117" s="8">
-        <f t="shared" si="15"/>
         <v>48.224392764099896</v>
       </c>
     </row>
@@ -4444,19 +4444,19 @@
         <v>11284.54</v>
       </c>
       <c r="F118" s="7">
+        <f t="shared" si="11"/>
+        <v>11406.39</v>
+      </c>
+      <c r="G118" s="7">
         <f t="shared" si="12"/>
-        <v>11406.39</v>
-      </c>
-      <c r="G118" s="7">
+        <v>10820.37</v>
+      </c>
+      <c r="H118" s="8">
         <f t="shared" si="13"/>
-        <v>10820.37</v>
-      </c>
-      <c r="H118" s="8">
+        <v>79.207194293710302</v>
+      </c>
+      <c r="I118" s="8">
         <f t="shared" si="14"/>
-        <v>79.207194293710302</v>
-      </c>
-      <c r="I118" s="8">
-        <f t="shared" si="15"/>
         <v>64.984311987940245</v>
       </c>
     </row>
@@ -4477,19 +4477,19 @@
         <v>11539.25</v>
       </c>
       <c r="F119" s="7">
+        <f t="shared" si="11"/>
+        <v>11541.78</v>
+      </c>
+      <c r="G119" s="7">
         <f t="shared" si="12"/>
-        <v>11541.78</v>
-      </c>
-      <c r="G119" s="7">
+        <v>10854.43</v>
+      </c>
+      <c r="H119" s="8">
         <f t="shared" si="13"/>
-        <v>10854.43</v>
-      </c>
-      <c r="H119" s="8">
+        <v>99.631919691568982</v>
+      </c>
+      <c r="I119" s="8">
         <f t="shared" si="14"/>
-        <v>99.631919691568982</v>
-      </c>
-      <c r="I119" s="8">
-        <f t="shared" si="15"/>
         <v>74.206490567173589</v>
       </c>
     </row>
@@ -4510,19 +4510,19 @@
         <v>11559.95</v>
       </c>
       <c r="F120" s="7">
+        <f t="shared" si="11"/>
+        <v>11630.07</v>
+      </c>
+      <c r="G120" s="7">
         <f t="shared" si="12"/>
-        <v>11630.07</v>
-      </c>
-      <c r="G120" s="7">
+        <v>10929.2</v>
+      </c>
+      <c r="H120" s="8">
         <f t="shared" si="13"/>
-        <v>10929.2</v>
-      </c>
-      <c r="H120" s="8">
+        <v>89.995291566196428</v>
+      </c>
+      <c r="I120" s="8">
         <f t="shared" si="14"/>
-        <v>89.995291566196428</v>
-      </c>
-      <c r="I120" s="8">
-        <f t="shared" si="15"/>
         <v>78.809815850008405</v>
       </c>
     </row>
@@ -4543,19 +4543,19 @@
         <v>11613.53</v>
       </c>
       <c r="F121" s="7">
+        <f t="shared" si="11"/>
+        <v>11712.6</v>
+      </c>
+      <c r="G121" s="7">
         <f t="shared" si="12"/>
-        <v>11712.6</v>
-      </c>
-      <c r="G121" s="7">
+        <v>10929.2</v>
+      </c>
+      <c r="H121" s="8">
         <f t="shared" si="13"/>
-        <v>10929.2</v>
-      </c>
-      <c r="H121" s="8">
+        <v>87.353842226193549</v>
+      </c>
+      <c r="I121" s="8">
         <f t="shared" si="14"/>
-        <v>87.353842226193549</v>
-      </c>
-      <c r="I121" s="8">
-        <f t="shared" si="15"/>
         <v>89.611468517158571</v>
       </c>
     </row>
@@ -4576,19 +4576,19 @@
         <v>11493.57</v>
       </c>
       <c r="F122" s="7">
+        <f t="shared" si="11"/>
+        <v>11716.84</v>
+      </c>
+      <c r="G122" s="7">
         <f t="shared" si="12"/>
-        <v>11716.84</v>
-      </c>
-      <c r="G122" s="7">
+        <v>10929.2</v>
+      </c>
+      <c r="H122" s="8">
         <f t="shared" si="13"/>
-        <v>10929.2</v>
-      </c>
-      <c r="H122" s="8">
+        <v>71.653293382763621</v>
+      </c>
+      <c r="I122" s="8">
         <f t="shared" si="14"/>
-        <v>71.653293382763621</v>
-      </c>
-      <c r="I122" s="8">
-        <f t="shared" si="15"/>
         <v>92.32701782798631</v>
       </c>
     </row>
@@ -4609,19 +4609,19 @@
         <v>11240.26</v>
       </c>
       <c r="F123" s="7">
+        <f t="shared" si="11"/>
+        <v>11716.84</v>
+      </c>
+      <c r="G123" s="7">
         <f t="shared" si="12"/>
-        <v>11716.84</v>
-      </c>
-      <c r="G123" s="7">
+        <v>11211.35</v>
+      </c>
+      <c r="H123" s="8">
         <f t="shared" si="13"/>
-        <v>11211.35</v>
-      </c>
-      <c r="H123" s="8">
+        <v>5.7192031494193483</v>
+      </c>
+      <c r="I123" s="8">
         <f t="shared" si="14"/>
-        <v>5.7192031494193483</v>
-      </c>
-      <c r="I123" s="8">
-        <f t="shared" si="15"/>
         <v>83.000809058384533</v>
       </c>
     </row>
@@ -4642,19 +4642,19 @@
         <v>11139.3</v>
       </c>
       <c r="F124" s="7">
+        <f t="shared" si="11"/>
+        <v>11716.84</v>
+      </c>
+      <c r="G124" s="7">
         <f t="shared" si="12"/>
-        <v>11716.84</v>
-      </c>
-      <c r="G124" s="7">
+        <v>10932.53</v>
+      </c>
+      <c r="H124" s="8">
         <f t="shared" si="13"/>
-        <v>10932.53</v>
-      </c>
-      <c r="H124" s="8">
+        <v>26.363300225675911</v>
+      </c>
+      <c r="I124" s="8">
         <f t="shared" si="14"/>
-        <v>26.363300225675911</v>
-      </c>
-      <c r="I124" s="8">
-        <f t="shared" si="15"/>
         <v>54.908779586125512</v>
       </c>
     </row>
@@ -4675,19 +4675,19 @@
         <v>11414.86</v>
       </c>
       <c r="F125" s="7">
+        <f t="shared" si="11"/>
+        <v>11716.84</v>
+      </c>
+      <c r="G125" s="7">
         <f t="shared" si="12"/>
-        <v>11716.84</v>
-      </c>
-      <c r="G125" s="7">
+        <v>10932.53</v>
+      </c>
+      <c r="H125" s="8">
         <f t="shared" si="13"/>
-        <v>10932.53</v>
-      </c>
-      <c r="H125" s="8">
+        <v>61.497367112493812</v>
+      </c>
+      <c r="I125" s="8">
         <f t="shared" si="14"/>
-        <v>61.497367112493812</v>
-      </c>
-      <c r="I125" s="8">
-        <f t="shared" si="15"/>
         <v>34.578598919286293</v>
       </c>
     </row>
@@ -4708,19 +4708,19 @@
         <v>11295.81</v>
       </c>
       <c r="F126" s="7">
+        <f t="shared" si="11"/>
+        <v>11716.84</v>
+      </c>
+      <c r="G126" s="7">
         <f t="shared" si="12"/>
-        <v>11716.84</v>
-      </c>
-      <c r="G126" s="7">
+        <v>10932.53</v>
+      </c>
+      <c r="H126" s="8">
         <f t="shared" si="13"/>
-        <v>10932.53</v>
-      </c>
-      <c r="H126" s="8">
+        <v>46.31842001249494</v>
+      </c>
+      <c r="I126" s="8">
         <f t="shared" si="14"/>
-        <v>46.31842001249494</v>
-      </c>
-      <c r="I126" s="8">
-        <f t="shared" si="15"/>
         <v>31.193290162529689</v>
       </c>
     </row>
@@ -4741,19 +4741,19 @@
         <v>10992.13</v>
       </c>
       <c r="F127" s="7">
+        <f t="shared" si="11"/>
+        <v>11492.14</v>
+      </c>
+      <c r="G127" s="7">
         <f t="shared" si="12"/>
-        <v>11492.14</v>
-      </c>
-      <c r="G127" s="7">
+        <v>10932.53</v>
+      </c>
+      <c r="H127" s="8">
         <f t="shared" si="13"/>
-        <v>10932.53</v>
-      </c>
-      <c r="H127" s="8">
+        <v>10.650274298171706</v>
+      </c>
+      <c r="I127" s="8">
         <f t="shared" si="14"/>
-        <v>10.650274298171706</v>
-      </c>
-      <c r="I127" s="8">
-        <f t="shared" si="15"/>
         <v>44.726362450221551</v>
       </c>
     </row>
@@ -4774,19 +4774,19 @@
         <v>11061.12</v>
       </c>
       <c r="F128" s="7">
+        <f t="shared" si="11"/>
+        <v>11477.3</v>
+      </c>
+      <c r="G128" s="7">
         <f t="shared" si="12"/>
-        <v>11477.3</v>
-      </c>
-      <c r="G128" s="7">
+        <v>10824.76</v>
+      </c>
+      <c r="H128" s="8">
         <f t="shared" si="13"/>
-        <v>10824.76</v>
-      </c>
-      <c r="H128" s="8">
+        <v>36.221534312072961</v>
+      </c>
+      <c r="I128" s="8">
         <f t="shared" si="14"/>
-        <v>36.221534312072961</v>
-      </c>
-      <c r="I128" s="8">
-        <f t="shared" si="15"/>
         <v>39.488687141053489</v>
       </c>
     </row>
@@ -4807,19 +4807,19 @@
         <v>11105.85</v>
       </c>
       <c r="F129" s="7">
+        <f t="shared" si="11"/>
+        <v>11477.3</v>
+      </c>
+      <c r="G129" s="7">
         <f t="shared" si="12"/>
-        <v>11477.3</v>
-      </c>
-      <c r="G129" s="7">
+        <v>10824.76</v>
+      </c>
+      <c r="H129" s="8">
         <f t="shared" si="13"/>
-        <v>10824.76</v>
-      </c>
-      <c r="H129" s="8">
+        <v>43.076286511171816</v>
+      </c>
+      <c r="I129" s="8">
         <f t="shared" si="14"/>
-        <v>43.076286511171816</v>
-      </c>
-      <c r="I129" s="8">
-        <f t="shared" si="15"/>
         <v>31.063409540913202</v>
       </c>
     </row>
@@ -4840,19 +4840,19 @@
         <v>11246.73</v>
       </c>
       <c r="F130" s="7">
+        <f t="shared" si="11"/>
+        <v>11477.3</v>
+      </c>
+      <c r="G130" s="7">
         <f t="shared" si="12"/>
-        <v>11477.3</v>
-      </c>
-      <c r="G130" s="7">
+        <v>10824.76</v>
+      </c>
+      <c r="H130" s="8">
         <f t="shared" si="13"/>
-        <v>10824.76</v>
-      </c>
-      <c r="H130" s="8">
+        <v>64.665767615778336</v>
+      </c>
+      <c r="I130" s="8">
         <f t="shared" si="14"/>
-        <v>64.665767615778336</v>
-      </c>
-      <c r="I130" s="8">
-        <f t="shared" si="15"/>
         <v>29.982698373805494</v>
       </c>
     </row>
@@ -4873,19 +4873,19 @@
         <v>11433.18</v>
       </c>
       <c r="F131" s="7">
+        <f t="shared" si="11"/>
+        <v>11433.4</v>
+      </c>
+      <c r="G131" s="7">
         <f t="shared" si="12"/>
-        <v>11433.4</v>
-      </c>
-      <c r="G131" s="7">
+        <v>10824.76</v>
+      </c>
+      <c r="H131" s="8">
         <f t="shared" si="13"/>
-        <v>10824.76</v>
-      </c>
-      <c r="H131" s="8">
+        <v>99.963853838065305</v>
+      </c>
+      <c r="I131" s="8">
         <f t="shared" si="14"/>
-        <v>99.963853838065305</v>
-      </c>
-      <c r="I131" s="8">
-        <f t="shared" si="15"/>
         <v>47.987862813007702</v>
       </c>
     </row>
@@ -4906,19 +4906,19 @@
         <v>11509.09</v>
       </c>
       <c r="F132" s="7">
+        <f t="shared" si="11"/>
+        <v>11532.47</v>
+      </c>
+      <c r="G132" s="7">
         <f t="shared" si="12"/>
-        <v>11532.47</v>
-      </c>
-      <c r="G132" s="7">
+        <v>10824.76</v>
+      </c>
+      <c r="H132" s="8">
         <f t="shared" si="13"/>
-        <v>10824.76</v>
-      </c>
-      <c r="H132" s="8">
+        <v>96.696386938152742</v>
+      </c>
+      <c r="I132" s="8">
         <f t="shared" si="14"/>
-        <v>96.696386938152742</v>
-      </c>
-      <c r="I132" s="8">
-        <f t="shared" si="15"/>
         <v>69.235302655005157</v>
       </c>
     </row>
@@ -4939,19 +4939,19 @@
         <v>11401.01</v>
       </c>
       <c r="F133" s="7">
+        <f t="shared" si="11"/>
+        <v>11532.47</v>
+      </c>
+      <c r="G133" s="7">
         <f t="shared" si="12"/>
-        <v>11532.47</v>
-      </c>
-      <c r="G133" s="7">
+        <v>10987.18</v>
+      </c>
+      <c r="H133" s="8">
         <f t="shared" si="13"/>
-        <v>10987.18</v>
-      </c>
-      <c r="H133" s="8">
+        <v>75.891727337747</v>
+      </c>
+      <c r="I133" s="8">
         <f t="shared" si="14"/>
-        <v>75.891727337747</v>
-      </c>
-      <c r="I133" s="8">
-        <f t="shared" si="15"/>
         <v>87.108669463998794</v>
       </c>
     </row>
@@ -4972,19 +4972,19 @@
         <v>11408.66</v>
       </c>
       <c r="F134" s="7">
-        <f t="shared" ref="F134:F165" si="16">MAX(C130:C134)</f>
+        <f t="shared" ref="F134:F165" si="15">MAX(C130:C134)</f>
         <v>11550.22</v>
       </c>
       <c r="G134" s="7">
-        <f t="shared" ref="G134:G165" si="17">MIN(D130:D134)</f>
+        <f t="shared" ref="G134:G165" si="16">MIN(D130:D134)</f>
         <v>10993.84</v>
       </c>
       <c r="H134" s="8">
-        <f t="shared" ref="H134:H165" si="18">(E134-G134)/(F134-G134)%</f>
+        <f t="shared" ref="H134:H165" si="17">(E134-G134)/(F134-G134)%</f>
         <v>74.556957475106998</v>
       </c>
       <c r="I134" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>90.850656037988344</v>
       </c>
     </row>
@@ -5005,19 +5005,19 @@
         <v>11124.84</v>
       </c>
       <c r="F135" s="7">
+        <f t="shared" si="15"/>
+        <v>11550.22</v>
+      </c>
+      <c r="G135" s="7">
         <f t="shared" si="16"/>
-        <v>11550.22</v>
-      </c>
-      <c r="G135" s="7">
+        <v>11117.28</v>
+      </c>
+      <c r="H135" s="8">
         <f t="shared" si="17"/>
-        <v>11117.28</v>
-      </c>
-      <c r="H135" s="8">
-        <f t="shared" si="18"/>
         <v>1.7462003972835758</v>
       </c>
       <c r="I135" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>82.381690583668913</v>
       </c>
     </row>
@@ -5038,19 +5038,19 @@
         <v>10733.83</v>
       </c>
       <c r="F136" s="7">
+        <f t="shared" si="15"/>
+        <v>11550.22</v>
+      </c>
+      <c r="G136" s="7">
         <f t="shared" si="16"/>
-        <v>11550.22</v>
-      </c>
-      <c r="G136" s="7">
+        <v>10597.14</v>
+      </c>
+      <c r="H136" s="8">
         <f t="shared" si="17"/>
-        <v>10597.14</v>
-      </c>
-      <c r="H136" s="8">
-        <f t="shared" si="18"/>
         <v>14.341923028497138</v>
       </c>
       <c r="I136" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>50.731628403379197</v>
       </c>
     </row>
@@ -5071,19 +5071,19 @@
         <v>10771.48</v>
       </c>
       <c r="F137" s="7">
+        <f t="shared" si="15"/>
+        <v>11550.22</v>
+      </c>
+      <c r="G137" s="7">
         <f t="shared" si="16"/>
-        <v>11550.22</v>
-      </c>
-      <c r="G137" s="7">
+        <v>10597.14</v>
+      </c>
+      <c r="H137" s="8">
         <f t="shared" si="17"/>
-        <v>10597.14</v>
-      </c>
-      <c r="H137" s="8">
-        <f t="shared" si="18"/>
         <v>18.292273471272104</v>
       </c>
       <c r="I137" s="8">
-        <f t="shared" ref="I137:I168" si="19">AVERAGE(H134:H136)</f>
+        <f t="shared" ref="I137:I168" si="18">AVERAGE(H134:H136)</f>
         <v>30.215026966962569</v>
       </c>
     </row>
@@ -5104,19 +5104,19 @@
         <v>11043.86</v>
       </c>
       <c r="F138" s="7">
+        <f t="shared" si="15"/>
+        <v>11550.22</v>
+      </c>
+      <c r="G138" s="7">
         <f t="shared" si="16"/>
-        <v>11550.22</v>
-      </c>
-      <c r="G138" s="7">
+        <v>10597.14</v>
+      </c>
+      <c r="H138" s="8">
         <f t="shared" si="17"/>
-        <v>10597.14</v>
-      </c>
-      <c r="H138" s="8">
+        <v>46.871196541738492</v>
+      </c>
+      <c r="I138" s="8">
         <f t="shared" si="18"/>
-        <v>46.871196541738492</v>
-      </c>
-      <c r="I138" s="8">
-        <f t="shared" si="19"/>
         <v>11.460132299017607</v>
       </c>
     </row>
@@ -5137,19 +5137,19 @@
         <v>11190.69</v>
       </c>
       <c r="F139" s="7">
+        <f t="shared" si="15"/>
+        <v>11447.86</v>
+      </c>
+      <c r="G139" s="7">
         <f t="shared" si="16"/>
-        <v>11447.86</v>
-      </c>
-      <c r="G139" s="7">
+        <v>10597.14</v>
+      </c>
+      <c r="H139" s="8">
         <f t="shared" si="17"/>
-        <v>10597.14</v>
-      </c>
-      <c r="H139" s="8">
+        <v>69.770312206131308</v>
+      </c>
+      <c r="I139" s="8">
         <f t="shared" si="18"/>
-        <v>69.770312206131308</v>
-      </c>
-      <c r="I139" s="8">
-        <f t="shared" si="19"/>
         <v>26.50179768050258</v>
       </c>
     </row>
@@ -5170,19 +5170,19 @@
         <v>11010.9</v>
       </c>
       <c r="F140" s="7">
+        <f t="shared" si="15"/>
+        <v>11369.3</v>
+      </c>
+      <c r="G140" s="7">
         <f t="shared" si="16"/>
-        <v>11369.3</v>
-      </c>
-      <c r="G140" s="7">
+        <v>10597.14</v>
+      </c>
+      <c r="H140" s="8">
         <f t="shared" si="17"/>
-        <v>10597.14</v>
-      </c>
-      <c r="H140" s="8">
+        <v>53.584749274761748</v>
+      </c>
+      <c r="I140" s="8">
         <f t="shared" si="18"/>
-        <v>53.584749274761748</v>
-      </c>
-      <c r="I140" s="8">
-        <f t="shared" si="19"/>
         <v>44.977927406380637</v>
       </c>
     </row>
@@ -5203,19 +5203,19 @@
         <v>11153.98</v>
       </c>
       <c r="F141" s="7">
+        <f t="shared" si="15"/>
+        <v>11369.3</v>
+      </c>
+      <c r="G141" s="7">
         <f t="shared" si="16"/>
-        <v>11369.3</v>
-      </c>
-      <c r="G141" s="7">
+        <v>10638.73</v>
+      </c>
+      <c r="H141" s="8">
         <f t="shared" si="17"/>
-        <v>10638.73</v>
-      </c>
-      <c r="H141" s="8">
+        <v>70.527122657650906</v>
+      </c>
+      <c r="I141" s="8">
         <f t="shared" si="18"/>
-        <v>70.527122657650906</v>
-      </c>
-      <c r="I141" s="8">
-        <f t="shared" si="19"/>
         <v>56.742086007543854</v>
       </c>
     </row>
@@ -5236,19 +5236,19 @@
         <v>10913.38</v>
       </c>
       <c r="F142" s="7">
+        <f t="shared" si="15"/>
+        <v>11369.3</v>
+      </c>
+      <c r="G142" s="7">
         <f t="shared" si="16"/>
-        <v>11369.3</v>
-      </c>
-      <c r="G142" s="7">
+        <v>10771.78</v>
+      </c>
+      <c r="H142" s="8">
         <f t="shared" si="17"/>
-        <v>10771.78</v>
-      </c>
-      <c r="H142" s="8">
+        <v>23.697951533002893</v>
+      </c>
+      <c r="I142" s="8">
         <f t="shared" si="18"/>
-        <v>23.697951533002893</v>
-      </c>
-      <c r="I142" s="8">
-        <f t="shared" si="19"/>
         <v>64.627394712847988</v>
       </c>
     </row>
@@ -5269,19 +5269,19 @@
         <v>10655.3</v>
       </c>
       <c r="F143" s="7">
+        <f t="shared" si="15"/>
+        <v>11369.3</v>
+      </c>
+      <c r="G143" s="7">
         <f t="shared" si="16"/>
-        <v>11369.3</v>
-      </c>
-      <c r="G143" s="7">
+        <v>10653.34</v>
+      </c>
+      <c r="H143" s="8">
         <f t="shared" si="17"/>
-        <v>10653.34</v>
-      </c>
-      <c r="H143" s="8">
+        <v>0.2737583105200192</v>
+      </c>
+      <c r="I143" s="8">
         <f t="shared" si="18"/>
-        <v>0.2737583105200192</v>
-      </c>
-      <c r="I143" s="8">
-        <f t="shared" si="19"/>
         <v>49.269941155138518</v>
       </c>
     </row>
@@ -5302,19 +5302,19 @@
         <v>10808.71</v>
       </c>
       <c r="F144" s="7">
+        <f t="shared" si="15"/>
+        <v>11317.08</v>
+      </c>
+      <c r="G144" s="7">
         <f t="shared" si="16"/>
-        <v>11317.08</v>
-      </c>
-      <c r="G144" s="7">
+        <v>10404.49</v>
+      </c>
+      <c r="H144" s="8">
         <f t="shared" si="17"/>
-        <v>10404.49</v>
-      </c>
-      <c r="H144" s="8">
+        <v>44.293713496750925</v>
+      </c>
+      <c r="I144" s="8">
         <f t="shared" si="18"/>
-        <v>44.293713496750925</v>
-      </c>
-      <c r="I144" s="8">
-        <f t="shared" si="19"/>
         <v>31.499610833724606</v>
       </c>
     </row>
@@ -5335,19 +5335,19 @@
         <v>10939.95</v>
       </c>
       <c r="F145" s="7">
+        <f t="shared" si="15"/>
+        <v>11271.14</v>
+      </c>
+      <c r="G145" s="7">
         <f t="shared" si="16"/>
-        <v>11271.14</v>
-      </c>
-      <c r="G145" s="7">
+        <v>10404.49</v>
+      </c>
+      <c r="H145" s="8">
         <f t="shared" si="17"/>
-        <v>10404.49</v>
-      </c>
-      <c r="H145" s="8">
+        <v>61.785034327583361</v>
+      </c>
+      <c r="I145" s="8">
         <f t="shared" si="18"/>
-        <v>61.785034327583361</v>
-      </c>
-      <c r="I145" s="8">
-        <f t="shared" si="19"/>
         <v>22.755141113424614</v>
       </c>
     </row>
@@ -5368,19 +5368,19 @@
         <v>11123.33</v>
       </c>
       <c r="F146" s="7">
+        <f t="shared" si="15"/>
+        <v>11152.39</v>
+      </c>
+      <c r="G146" s="7">
         <f t="shared" si="16"/>
-        <v>11152.39</v>
-      </c>
-      <c r="G146" s="7">
+        <v>10404.49</v>
+      </c>
+      <c r="H146" s="8">
         <f t="shared" si="17"/>
-        <v>10404.49</v>
-      </c>
-      <c r="H146" s="8">
+        <v>96.11445380398456</v>
+      </c>
+      <c r="I146" s="8">
         <f t="shared" si="18"/>
-        <v>96.11445380398456</v>
-      </c>
-      <c r="I146" s="8">
-        <f t="shared" si="19"/>
         <v>35.450835378284772</v>
       </c>
     </row>
@@ -5401,19 +5401,19 @@
         <v>11103.12</v>
       </c>
       <c r="F147" s="7">
+        <f t="shared" si="15"/>
+        <v>11232.05</v>
+      </c>
+      <c r="G147" s="7">
         <f t="shared" si="16"/>
-        <v>11232.05</v>
-      </c>
-      <c r="G147" s="7">
+        <v>10404.49</v>
+      </c>
+      <c r="H147" s="8">
         <f t="shared" si="17"/>
-        <v>10404.49</v>
-      </c>
-      <c r="H147" s="8">
+        <v>84.420464981391248</v>
+      </c>
+      <c r="I147" s="8">
         <f t="shared" si="18"/>
-        <v>84.420464981391248</v>
-      </c>
-      <c r="I147" s="8">
-        <f t="shared" si="19"/>
         <v>67.397733876106273</v>
       </c>
     </row>
@@ -5434,19 +5434,19 @@
         <v>11433.18</v>
       </c>
       <c r="F148" s="7">
+        <f t="shared" si="15"/>
+        <v>11433.33</v>
+      </c>
+      <c r="G148" s="7">
         <f t="shared" si="16"/>
-        <v>11433.33</v>
-      </c>
-      <c r="G148" s="7">
+        <v>10404.49</v>
+      </c>
+      <c r="H148" s="8">
         <f t="shared" si="17"/>
-        <v>10404.49</v>
-      </c>
-      <c r="H148" s="8">
+        <v>99.985420473543059</v>
+      </c>
+      <c r="I148" s="8">
         <f t="shared" si="18"/>
-        <v>99.985420473543059</v>
-      </c>
-      <c r="I148" s="8">
-        <f t="shared" si="19"/>
         <v>80.773317704319723</v>
       </c>
     </row>
@@ -5467,19 +5467,19 @@
         <v>11416.3</v>
       </c>
       <c r="F149" s="7">
+        <f t="shared" si="15"/>
+        <v>11447.86</v>
+      </c>
+      <c r="G149" s="7">
         <f t="shared" si="16"/>
-        <v>11447.86</v>
-      </c>
-      <c r="G149" s="7">
+        <v>10738.1</v>
+      </c>
+      <c r="H149" s="8">
         <f t="shared" si="17"/>
-        <v>10738.1</v>
-      </c>
-      <c r="H149" s="8">
+        <v>95.553426510369519</v>
+      </c>
+      <c r="I149" s="8">
         <f t="shared" si="18"/>
-        <v>95.553426510369519</v>
-      </c>
-      <c r="I149" s="8">
-        <f t="shared" si="19"/>
         <v>93.506779752972946</v>
       </c>
     </row>
@@ -5500,19 +5500,19 @@
         <v>11518.85</v>
       </c>
       <c r="F150" s="7">
+        <f t="shared" si="15"/>
+        <v>11625.3</v>
+      </c>
+      <c r="G150" s="7">
         <f t="shared" si="16"/>
-        <v>11625.3</v>
-      </c>
-      <c r="G150" s="7">
+        <v>10858.67</v>
+      </c>
+      <c r="H150" s="8">
         <f t="shared" si="17"/>
-        <v>10858.67</v>
-      </c>
-      <c r="H150" s="8">
+        <v>86.114553304723401</v>
+      </c>
+      <c r="I150" s="8">
         <f t="shared" si="18"/>
-        <v>86.114553304723401</v>
-      </c>
-      <c r="I150" s="8">
-        <f t="shared" si="19"/>
         <v>93.319770655101294</v>
       </c>
     </row>
@@ -5533,19 +5533,19 @@
         <v>11478.13</v>
       </c>
       <c r="F151" s="7">
+        <f t="shared" si="15"/>
+        <v>11625.3</v>
+      </c>
+      <c r="G151" s="7">
         <f t="shared" si="16"/>
-        <v>11625.3</v>
-      </c>
-      <c r="G151" s="7">
+        <v>11051.13</v>
+      </c>
+      <c r="H151" s="8">
         <f t="shared" si="17"/>
-        <v>11051.13</v>
-      </c>
-      <c r="H151" s="8">
+        <v>74.368218471881136</v>
+      </c>
+      <c r="I151" s="8">
         <f t="shared" si="18"/>
-        <v>74.368218471881136</v>
-      </c>
-      <c r="I151" s="8">
-        <f t="shared" si="19"/>
         <v>93.88446676287866</v>
       </c>
     </row>
@@ -5566,19 +5566,19 @@
         <v>11644.49</v>
       </c>
       <c r="F152" s="7">
+        <f t="shared" si="15"/>
+        <v>11646.83</v>
+      </c>
+      <c r="G152" s="7">
         <f t="shared" si="16"/>
-        <v>11646.83</v>
-      </c>
-      <c r="G152" s="7">
+        <v>11104.56</v>
+      </c>
+      <c r="H152" s="8">
         <f t="shared" si="17"/>
-        <v>11104.56</v>
-      </c>
-      <c r="H152" s="8">
+        <v>99.568480646172546</v>
+      </c>
+      <c r="I152" s="8">
         <f t="shared" si="18"/>
-        <v>99.568480646172546</v>
-      </c>
-      <c r="I152" s="8">
-        <f t="shared" si="19"/>
         <v>85.345399428991342</v>
       </c>
     </row>
@@ -5599,19 +5599,19 @@
         <v>11397</v>
       </c>
       <c r="F153" s="7">
+        <f t="shared" si="15"/>
+        <v>11646.83</v>
+      </c>
+      <c r="G153" s="7">
         <f t="shared" si="16"/>
-        <v>11646.83</v>
-      </c>
-      <c r="G153" s="7">
+        <v>11365.67</v>
+      </c>
+      <c r="H153" s="8">
         <f t="shared" si="17"/>
-        <v>11365.67</v>
-      </c>
-      <c r="H153" s="8">
+        <v>11.14312135438894</v>
+      </c>
+      <c r="I153" s="8">
         <f t="shared" si="18"/>
-        <v>11.14312135438894</v>
-      </c>
-      <c r="I153" s="8">
-        <f t="shared" si="19"/>
         <v>86.683750807592347</v>
       </c>
     </row>
@@ -5632,19 +5632,19 @@
         <v>11577.05</v>
       </c>
       <c r="F154" s="7">
+        <f t="shared" si="15"/>
+        <v>11652.74</v>
+      </c>
+      <c r="G154" s="7">
         <f t="shared" si="16"/>
-        <v>11652.74</v>
-      </c>
-      <c r="G154" s="7">
+        <v>11296.12</v>
+      </c>
+      <c r="H154" s="8">
         <f t="shared" si="17"/>
-        <v>11296.12</v>
-      </c>
-      <c r="H154" s="8">
+        <v>78.775727665301801</v>
+      </c>
+      <c r="I154" s="8">
         <f t="shared" si="18"/>
-        <v>78.775727665301801</v>
-      </c>
-      <c r="I154" s="8">
-        <f t="shared" si="19"/>
         <v>61.693273490814214</v>
       </c>
     </row>
@@ -5665,19 +5665,19 @@
         <v>11504.62</v>
       </c>
       <c r="F155" s="7">
+        <f t="shared" si="15"/>
+        <v>11652.74</v>
+      </c>
+      <c r="G155" s="7">
         <f t="shared" si="16"/>
-        <v>11652.74</v>
-      </c>
-      <c r="G155" s="7">
+        <v>11296.12</v>
+      </c>
+      <c r="H155" s="8">
         <f t="shared" si="17"/>
-        <v>11296.12</v>
-      </c>
-      <c r="H155" s="8">
+        <v>58.465593629073133</v>
+      </c>
+      <c r="I155" s="8">
         <f t="shared" si="18"/>
-        <v>58.465593629073133</v>
-      </c>
-      <c r="I155" s="8">
-        <f t="shared" si="19"/>
         <v>63.162443221954426</v>
       </c>
     </row>
@@ -5698,19 +5698,19 @@
         <v>11541.78</v>
       </c>
       <c r="F156" s="7">
+        <f t="shared" si="15"/>
+        <v>11652.74</v>
+      </c>
+      <c r="G156" s="7">
         <f t="shared" si="16"/>
-        <v>11652.74</v>
-      </c>
-      <c r="G156" s="7">
+        <v>11296.12</v>
+      </c>
+      <c r="H156" s="8">
         <f t="shared" si="17"/>
-        <v>11296.12</v>
-      </c>
-      <c r="H156" s="8">
+        <v>68.885648589535236</v>
+      </c>
+      <c r="I156" s="8">
         <f t="shared" si="18"/>
-        <v>68.885648589535236</v>
-      </c>
-      <c r="I156" s="8">
-        <f t="shared" si="19"/>
         <v>49.461480882921286</v>
       </c>
     </row>
@@ -5731,19 +5731,19 @@
         <v>11808.79</v>
       </c>
       <c r="F157" s="7">
+        <f t="shared" si="15"/>
+        <v>11812.46</v>
+      </c>
+      <c r="G157" s="7">
         <f t="shared" si="16"/>
-        <v>11812.46</v>
-      </c>
-      <c r="G157" s="7">
+        <v>11296.12</v>
+      </c>
+      <c r="H157" s="8">
         <f t="shared" si="17"/>
-        <v>11296.12</v>
-      </c>
-      <c r="H157" s="8">
+        <v>99.289228028043865</v>
+      </c>
+      <c r="I157" s="8">
         <f t="shared" si="18"/>
-        <v>99.289228028043865</v>
-      </c>
-      <c r="I157" s="8">
-        <f t="shared" si="19"/>
         <v>68.708989961303388</v>
       </c>
     </row>
@@ -5764,19 +5764,19 @@
         <v>11913.62</v>
       </c>
       <c r="F158" s="7">
+        <f t="shared" si="15"/>
+        <v>11940.75</v>
+      </c>
+      <c r="G158" s="7">
         <f t="shared" si="16"/>
-        <v>11940.75</v>
-      </c>
-      <c r="G158" s="7">
+        <v>11296.12</v>
+      </c>
+      <c r="H158" s="8">
         <f t="shared" si="17"/>
-        <v>11296.12</v>
-      </c>
-      <c r="H158" s="8">
+        <v>95.79138420489285</v>
+      </c>
+      <c r="I158" s="8">
         <f t="shared" si="18"/>
-        <v>95.79138420489285</v>
-      </c>
-      <c r="I158" s="8">
-        <f t="shared" si="19"/>
         <v>75.546823415550747</v>
       </c>
     </row>
@@ -5797,19 +5797,19 @@
         <v>11706.62</v>
       </c>
       <c r="F159" s="7">
+        <f t="shared" si="15"/>
+        <v>11940.75</v>
+      </c>
+      <c r="G159" s="7">
         <f t="shared" si="16"/>
-        <v>11940.75</v>
-      </c>
-      <c r="G159" s="7">
+        <v>11391.14</v>
+      </c>
+      <c r="H159" s="8">
         <f t="shared" si="17"/>
-        <v>11391.14</v>
-      </c>
-      <c r="H159" s="8">
+        <v>57.400702316188038</v>
+      </c>
+      <c r="I159" s="8">
         <f t="shared" si="18"/>
-        <v>57.400702316188038</v>
-      </c>
-      <c r="I159" s="8">
-        <f t="shared" si="19"/>
         <v>87.988753607490651</v>
       </c>
     </row>
@@ -5830,19 +5830,19 @@
         <v>11869.04</v>
       </c>
       <c r="F160" s="7">
+        <f t="shared" si="15"/>
+        <v>11940.75</v>
+      </c>
+      <c r="G160" s="7">
         <f t="shared" si="16"/>
-        <v>11940.75</v>
-      </c>
-      <c r="G160" s="7">
+        <v>11391.14</v>
+      </c>
+      <c r="H160" s="8">
         <f t="shared" si="17"/>
-        <v>11391.14</v>
-      </c>
-      <c r="H160" s="8">
+        <v>86.952566365240983</v>
+      </c>
+      <c r="I160" s="8">
         <f t="shared" si="18"/>
-        <v>86.952566365240983</v>
-      </c>
-      <c r="I160" s="8">
-        <f t="shared" si="19"/>
         <v>84.160438183041592</v>
       </c>
     </row>
@@ -5863,19 +5863,19 @@
         <v>12208.55</v>
       </c>
       <c r="F161" s="7">
+        <f t="shared" si="15"/>
+        <v>12284.31</v>
+      </c>
+      <c r="G161" s="7">
         <f t="shared" si="16"/>
-        <v>12284.31</v>
-      </c>
-      <c r="G161" s="7">
+        <v>11542.84</v>
+      </c>
+      <c r="H161" s="8">
         <f t="shared" si="17"/>
-        <v>11542.84</v>
-      </c>
-      <c r="H161" s="8">
+        <v>89.782459168948137</v>
+      </c>
+      <c r="I161" s="8">
         <f t="shared" si="18"/>
-        <v>89.782459168948137</v>
-      </c>
-      <c r="I161" s="8">
-        <f t="shared" si="19"/>
         <v>80.048217628773955</v>
       </c>
     </row>
@@ -5896,19 +5896,19 @@
         <v>12231.11</v>
       </c>
       <c r="F162" s="7">
+        <f t="shared" si="15"/>
+        <v>12284.31</v>
+      </c>
+      <c r="G162" s="7">
         <f t="shared" si="16"/>
-        <v>12284.31</v>
-      </c>
-      <c r="G162" s="7">
+        <v>11682.52</v>
+      </c>
+      <c r="H162" s="8">
         <f t="shared" si="17"/>
-        <v>11682.52</v>
-      </c>
-      <c r="H162" s="8">
+        <v>91.159706874491278</v>
+      </c>
+      <c r="I162" s="8">
         <f t="shared" si="18"/>
-        <v>91.159706874491278</v>
-      </c>
-      <c r="I162" s="8">
-        <f t="shared" si="19"/>
         <v>78.045242616792393</v>
       </c>
     </row>
@@ -5929,19 +5929,19 @@
         <v>11955.01</v>
       </c>
       <c r="F163" s="7">
+        <f t="shared" si="15"/>
+        <v>12284.31</v>
+      </c>
+      <c r="G163" s="7">
         <f t="shared" si="16"/>
-        <v>12284.31</v>
-      </c>
-      <c r="G163" s="7">
+        <v>11682.52</v>
+      </c>
+      <c r="H163" s="8">
         <f t="shared" si="17"/>
-        <v>11682.52</v>
-      </c>
-      <c r="H163" s="8">
+        <v>45.279914920487251</v>
+      </c>
+      <c r="I163" s="8">
         <f t="shared" si="18"/>
-        <v>45.279914920487251</v>
-      </c>
-      <c r="I163" s="8">
-        <f t="shared" si="19"/>
         <v>89.298244136226799</v>
       </c>
     </row>
@@ -5962,19 +5962,19 @@
         <v>11657.96</v>
       </c>
       <c r="F164" s="7">
+        <f t="shared" si="15"/>
+        <v>12284.31</v>
+      </c>
+      <c r="G164" s="7">
         <f t="shared" si="16"/>
-        <v>12284.31</v>
-      </c>
-      <c r="G164" s="7">
+        <v>11630.03</v>
+      </c>
+      <c r="H164" s="8">
         <f t="shared" si="17"/>
-        <v>11630.03</v>
-      </c>
-      <c r="H164" s="8">
+        <v>4.2688145747995545</v>
+      </c>
+      <c r="I164" s="8">
         <f t="shared" si="18"/>
-        <v>4.2688145747995545</v>
-      </c>
-      <c r="I164" s="8">
-        <f t="shared" si="19"/>
         <v>75.407360321308886</v>
       </c>
     </row>
@@ -5995,19 +5995,19 @@
         <v>11836.04</v>
       </c>
       <c r="F165" s="7">
+        <f t="shared" si="15"/>
+        <v>12284.31</v>
+      </c>
+      <c r="G165" s="7">
         <f t="shared" si="16"/>
-        <v>12284.31</v>
-      </c>
-      <c r="G165" s="7">
+        <v>11630.03</v>
+      </c>
+      <c r="H165" s="8">
         <f t="shared" si="17"/>
-        <v>11630.03</v>
-      </c>
-      <c r="H165" s="8">
+        <v>31.486519532921776</v>
+      </c>
+      <c r="I165" s="8">
         <f t="shared" si="18"/>
-        <v>31.486519532921776</v>
-      </c>
-      <c r="I165" s="8">
-        <f t="shared" si="19"/>
         <v>46.902812123259366</v>
       </c>
     </row>
@@ -6028,19 +6028,19 @@
         <v>12044.47</v>
       </c>
       <c r="F166" s="7">
-        <f t="shared" ref="F166:F175" si="20">MAX(C162:C166)</f>
+        <f t="shared" ref="F166:F175" si="19">MAX(C162:C166)</f>
         <v>12251.92</v>
       </c>
       <c r="G166" s="7">
-        <f t="shared" ref="G166:G175" si="21">MIN(D162:D166)</f>
+        <f t="shared" ref="G166:G175" si="20">MIN(D162:D166)</f>
         <v>11630.03</v>
       </c>
       <c r="H166" s="8">
-        <f t="shared" ref="H166:H175" si="22">(E166-G166)/(F166-G166)%</f>
+        <f t="shared" ref="H166:H175" si="21">(E166-G166)/(F166-G166)%</f>
         <v>66.642010644969218</v>
       </c>
       <c r="I166" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>27.011749676069527</v>
       </c>
     </row>
@@ -6061,19 +6061,19 @@
         <v>11983.24</v>
       </c>
       <c r="F167" s="7">
+        <f t="shared" si="19"/>
+        <v>12229.29</v>
+      </c>
+      <c r="G167" s="7">
         <f t="shared" si="20"/>
-        <v>12229.29</v>
-      </c>
-      <c r="G167" s="7">
+        <v>11630.03</v>
+      </c>
+      <c r="H167" s="8">
         <f t="shared" si="21"/>
-        <v>11630.03</v>
-      </c>
-      <c r="H167" s="8">
-        <f t="shared" si="22"/>
         <v>58.941027266962422</v>
       </c>
       <c r="I167" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>34.13244825089685</v>
       </c>
     </row>
@@ -6094,19 +6094,19 @@
         <v>12068.39</v>
       </c>
       <c r="F168" s="7">
+        <f t="shared" si="19"/>
+        <v>12074.44</v>
+      </c>
+      <c r="G168" s="7">
         <f t="shared" si="20"/>
-        <v>12074.44</v>
-      </c>
-      <c r="G168" s="7">
+        <v>11630.03</v>
+      </c>
+      <c r="H168" s="8">
         <f t="shared" si="21"/>
-        <v>11630.03</v>
-      </c>
-      <c r="H168" s="8">
-        <f t="shared" si="22"/>
         <v>98.63864449494811</v>
       </c>
       <c r="I168" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>52.35651914828447</v>
       </c>
     </row>
@@ -6127,19 +6127,19 @@
         <v>12170.18</v>
       </c>
       <c r="F169" s="7">
+        <f t="shared" si="19"/>
+        <v>12187.51</v>
+      </c>
+      <c r="G169" s="7">
         <f t="shared" si="20"/>
-        <v>12187.51</v>
-      </c>
-      <c r="G169" s="7">
+        <v>11658.49</v>
+      </c>
+      <c r="H169" s="8">
         <f t="shared" si="21"/>
-        <v>11658.49</v>
-      </c>
-      <c r="H169" s="8">
-        <f t="shared" si="22"/>
         <v>96.724131412801057</v>
       </c>
       <c r="I169" s="8">
-        <f t="shared" ref="I169:I175" si="23">AVERAGE(H166:H168)</f>
+        <f t="shared" ref="I169:I175" si="22">AVERAGE(H166:H168)</f>
         <v>74.740560802293246</v>
       </c>
     </row>
@@ -6160,19 +6160,19 @@
         <v>11780.94</v>
       </c>
       <c r="F170" s="7">
+        <f t="shared" si="19"/>
+        <v>12187.51</v>
+      </c>
+      <c r="G170" s="7">
         <f t="shared" si="20"/>
-        <v>12187.51</v>
-      </c>
-      <c r="G170" s="7">
+        <v>11736.93</v>
+      </c>
+      <c r="H170" s="8">
         <f t="shared" si="21"/>
-        <v>11736.93</v>
-      </c>
-      <c r="H170" s="8">
+        <v>9.767410892627332</v>
+      </c>
+      <c r="I170" s="8">
         <f t="shared" si="22"/>
-        <v>9.767410892627332</v>
-      </c>
-      <c r="I170" s="8">
-        <f t="shared" si="23"/>
         <v>84.767934391570535</v>
       </c>
     </row>
@@ -6193,19 +6193,19 @@
         <v>11893.79</v>
       </c>
       <c r="F171" s="7">
+        <f t="shared" si="19"/>
+        <v>12187.51</v>
+      </c>
+      <c r="G171" s="7">
         <f t="shared" si="20"/>
-        <v>12187.51</v>
-      </c>
-      <c r="G171" s="7">
+        <v>11736.93</v>
+      </c>
+      <c r="H171" s="8">
         <f t="shared" si="21"/>
-        <v>11736.93</v>
-      </c>
-      <c r="H171" s="8">
+        <v>34.812907807714637</v>
+      </c>
+      <c r="I171" s="8">
         <f t="shared" si="22"/>
-        <v>34.812907807714637</v>
-      </c>
-      <c r="I171" s="8">
-        <f t="shared" si="23"/>
         <v>68.376728933458836</v>
       </c>
     </row>
@@ -6226,19 +6226,19 @@
         <v>12153.68</v>
       </c>
       <c r="F172" s="7">
+        <f t="shared" si="19"/>
+        <v>12187.51</v>
+      </c>
+      <c r="G172" s="7">
         <f t="shared" si="20"/>
-        <v>12187.51</v>
-      </c>
-      <c r="G172" s="7">
+        <v>11736.93</v>
+      </c>
+      <c r="H172" s="8">
         <f t="shared" si="21"/>
-        <v>11736.93</v>
-      </c>
-      <c r="H172" s="8">
+        <v>92.491899329752783</v>
+      </c>
+      <c r="I172" s="8">
         <f t="shared" si="22"/>
-        <v>92.491899329752783</v>
-      </c>
-      <c r="I172" s="8">
-        <f t="shared" si="23"/>
         <v>47.101483371047685</v>
       </c>
     </row>
@@ -6259,19 +6259,19 @@
         <v>12078.98</v>
       </c>
       <c r="F173" s="7">
+        <f t="shared" si="19"/>
+        <v>12187.51</v>
+      </c>
+      <c r="G173" s="7">
         <f t="shared" si="20"/>
-        <v>12187.51</v>
-      </c>
-      <c r="G173" s="7">
+        <v>11736.93</v>
+      </c>
+      <c r="H173" s="8">
         <f t="shared" si="21"/>
-        <v>11736.93</v>
-      </c>
-      <c r="H173" s="8">
+        <v>75.913267344311635</v>
+      </c>
+      <c r="I173" s="8">
         <f t="shared" si="22"/>
-        <v>75.913267344311635</v>
-      </c>
-      <c r="I173" s="8">
-        <f t="shared" si="23"/>
         <v>45.690739343364918</v>
       </c>
     </row>
@@ -6292,19 +6292,19 @@
         <v>12096.16</v>
       </c>
       <c r="F174" s="7">
+        <f t="shared" si="19"/>
+        <v>12179.72</v>
+      </c>
+      <c r="G174" s="7">
         <f t="shared" si="20"/>
-        <v>12179.72</v>
-      </c>
-      <c r="G174" s="7">
+        <v>11736.93</v>
+      </c>
+      <c r="H174" s="8">
         <f t="shared" si="21"/>
-        <v>11736.93</v>
-      </c>
-      <c r="H174" s="8">
+        <v>81.128751778495527</v>
+      </c>
+      <c r="I174" s="8">
         <f t="shared" si="22"/>
-        <v>81.128751778495527</v>
-      </c>
-      <c r="I174" s="8">
-        <f t="shared" si="23"/>
         <v>67.739358160593028</v>
       </c>
     </row>
@@ -6325,19 +6325,19 @@
         <v>11905.59</v>
       </c>
       <c r="F175" s="7">
+        <f t="shared" si="19"/>
+        <v>12179.72</v>
+      </c>
+      <c r="G175" s="7">
         <f t="shared" si="20"/>
-        <v>12179.72</v>
-      </c>
-      <c r="G175" s="7">
+        <v>11779.88</v>
+      </c>
+      <c r="H175" s="8">
         <f t="shared" si="21"/>
-        <v>11779.88</v>
-      </c>
-      <c r="H175" s="8">
+        <v>31.440076030412389</v>
+      </c>
+      <c r="I175" s="8">
         <f t="shared" si="22"/>
-        <v>31.440076030412389</v>
-      </c>
-      <c r="I175" s="8">
-        <f t="shared" si="23"/>
         <v>83.177972817519972</v>
       </c>
     </row>
